--- a/python_automation/MICRO feb.xlsx
+++ b/python_automation/MICRO feb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="235">
   <si>
     <t xml:space="preserve">Sr</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">24/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">Mepal Rajput, AP Market</t>
@@ -891,8 +894,8 @@
   </sheetPr>
   <dimension ref="A1:AR238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A140" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C148" activeCellId="0" sqref="C148"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A126" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C145" activeCellId="0" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1018,7 +1021,9 @@
       <c r="AJ1" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AK1" s="3"/>
+      <c r="AK1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
@@ -1032,111 +1037,113 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
@@ -1150,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>44508</v>
@@ -1178,7 +1185,7 @@
         <v>1000</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>0</v>
@@ -1258,7 +1265,9 @@
       <c r="AJ3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK3" s="3"/>
+      <c r="AK3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
@@ -1272,7 +1281,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>44509</v>
@@ -1300,7 +1309,7 @@
         <v>400</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>0</v>
@@ -1380,7 +1389,9 @@
       <c r="AJ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK4" s="3"/>
+      <c r="AK4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
@@ -1394,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>44512</v>
@@ -1422,7 +1433,7 @@
         <v>600</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>0</v>
@@ -1502,7 +1513,9 @@
       <c r="AJ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK5" s="3"/>
+      <c r="AK5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
@@ -1516,7 +1529,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>44522</v>
@@ -1544,7 +1557,7 @@
         <v>200</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>0</v>
@@ -1624,7 +1637,9 @@
       <c r="AJ6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK6" s="3"/>
+      <c r="AK6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
@@ -1638,7 +1653,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>44530</v>
@@ -1666,7 +1681,7 @@
         <v>400</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>0</v>
@@ -1746,7 +1761,9 @@
       <c r="AJ7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK7" s="3"/>
+      <c r="AK7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
@@ -1760,7 +1777,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>44531</v>
@@ -1788,7 +1805,7 @@
         <v>400</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>0</v>
@@ -1868,7 +1885,9 @@
       <c r="AJ8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK8" s="3"/>
+      <c r="AK8" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
@@ -1882,7 +1901,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>44540</v>
@@ -1928,7 +1947,7 @@
         <v>2400</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="1" t="n">
         <v>0</v>
@@ -1990,7 +2009,9 @@
       <c r="AJ9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="3"/>
+      <c r="AK9" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
@@ -2004,7 +2025,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>44540</v>
@@ -2032,7 +2053,7 @@
         <v>1000</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>0</v>
@@ -2112,7 +2133,9 @@
       <c r="AJ10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK10" s="3"/>
+      <c r="AK10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
@@ -2126,7 +2149,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>44540</v>
@@ -2154,7 +2177,7 @@
         <v>800</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>0</v>
@@ -2234,7 +2257,9 @@
       <c r="AJ11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK11" s="3"/>
+      <c r="AK11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
@@ -2248,7 +2273,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>44542</v>
@@ -2279,7 +2304,7 @@
         <v>3200</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>0</v>
@@ -2356,7 +2381,9 @@
       <c r="AJ12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK12" s="3"/>
+      <c r="AK12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
@@ -2370,7 +2397,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>44543</v>
@@ -2404,7 +2431,7 @@
         <v>13500</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M13" s="1" t="n">
         <v>0</v>
@@ -2478,7 +2505,9 @@
       <c r="AJ13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK13" s="3"/>
+      <c r="AK13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
@@ -2492,7 +2521,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>44543</v>
@@ -2526,7 +2555,7 @@
         <v>12600</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M14" s="1" t="n">
         <v>0</v>
@@ -2600,7 +2629,9 @@
       <c r="AJ14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK14" s="3"/>
+      <c r="AK14" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
@@ -2614,7 +2645,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>44544</v>
@@ -2675,7 +2706,7 @@
         <v>300</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V15" s="1" t="n">
         <v>0</v>
@@ -2722,7 +2753,9 @@
       <c r="AJ15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK15" s="3"/>
+      <c r="AK15" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
@@ -2736,7 +2769,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>44546</v>
@@ -2803,7 +2836,7 @@
         <v>400</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X16" s="1" t="n">
         <v>0</v>
@@ -2844,7 +2877,9 @@
       <c r="AJ16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK16" s="3"/>
+      <c r="AK16" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
@@ -2858,7 +2893,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>44548</v>
@@ -2928,7 +2963,7 @@
         <v>600</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y17" s="1" t="n">
         <v>0</v>
@@ -2966,7 +3001,9 @@
       <c r="AJ17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK17" s="3"/>
+      <c r="AK17" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
@@ -2980,7 +3017,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>44549</v>
@@ -3059,7 +3096,7 @@
         <v>200</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB18" s="1" t="n">
         <v>0</v>
@@ -3088,7 +3125,9 @@
       <c r="AJ18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK18" s="3"/>
+      <c r="AK18" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
@@ -3102,7 +3141,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>44550</v>
@@ -3181,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB19" s="8" t="n">
         <v>44610</v>
@@ -3210,7 +3249,9 @@
       <c r="AJ19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK19" s="3"/>
+      <c r="AK19" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
@@ -3224,7 +3265,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>44552</v>
@@ -3312,7 +3353,7 @@
         <v>800</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE20" s="9" t="n">
         <v>44612</v>
@@ -3332,7 +3373,9 @@
       <c r="AJ20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK20" s="3"/>
+      <c r="AK20" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,7 +3383,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>44552</v>
@@ -3425,7 +3468,7 @@
         <v>1200</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD21" s="8" t="n">
         <v>44611</v>
@@ -3448,7 +3491,9 @@
       <c r="AJ21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" s="3"/>
+      <c r="AK21" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,7 +3501,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>44552</v>
@@ -3541,7 +3586,7 @@
         <v>400</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD22" s="8" t="n">
         <v>44611</v>
@@ -3564,7 +3609,9 @@
       <c r="AJ22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK22" s="3"/>
+      <c r="AK22" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,7 +3619,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>44553</v>
@@ -3660,7 +3707,7 @@
         <v>2000</v>
       </c>
       <c r="AD23" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE23" s="9" t="n">
         <v>44612</v>
@@ -3680,7 +3727,9 @@
       <c r="AJ23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK23" s="3"/>
+      <c r="AK23" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3688,7 +3737,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>44553</v>
@@ -3776,7 +3825,7 @@
         <v>400</v>
       </c>
       <c r="AD24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE24" s="9" t="n">
         <v>44612</v>
@@ -3796,7 +3845,9 @@
       <c r="AJ24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK24" s="3"/>
+      <c r="AK24" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,7 +3855,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>44554</v>
@@ -3886,7 +3937,7 @@
         <v>3000</v>
       </c>
       <c r="AB25" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC25" s="1" t="n">
         <v>0</v>
@@ -3912,7 +3963,9 @@
       <c r="AJ25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK25" s="3"/>
+      <c r="AK25" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,7 +3973,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>44554</v>
@@ -3999,7 +4052,7 @@
         <v>1000</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB26" s="8" t="n">
         <v>44609</v>
@@ -4028,7 +4081,9 @@
       <c r="AJ26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK26" s="3"/>
+      <c r="AK26" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,7 +4091,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>44555</v>
@@ -4127,7 +4182,7 @@
         <v>800</v>
       </c>
       <c r="AE27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF27" s="9" t="n">
         <v>44613</v>
@@ -4144,7 +4199,9 @@
       <c r="AJ27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK27" s="3"/>
+      <c r="AK27" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4152,7 +4209,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>44555</v>
@@ -4240,7 +4297,7 @@
         <v>2100</v>
       </c>
       <c r="AD28" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE28" s="9" t="n">
         <v>44612</v>
@@ -4260,7 +4317,9 @@
       <c r="AJ28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK28" s="3"/>
+      <c r="AK28" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4268,7 +4327,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>44556</v>
@@ -4359,7 +4418,7 @@
         <v>1200</v>
       </c>
       <c r="AE29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF29" s="9" t="n">
         <v>44613</v>
@@ -4376,7 +4435,9 @@
       <c r="AJ29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK29" s="3"/>
+      <c r="AK29" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4384,7 +4445,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>44556</v>
@@ -4472,7 +4533,7 @@
         <v>400</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE30" s="9" t="n">
         <v>44612</v>
@@ -4492,7 +4553,9 @@
       <c r="AJ30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK30" s="3"/>
+      <c r="AK30" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,7 +4563,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="5" t="n">
         <v>44557</v>
@@ -4597,7 +4660,7 @@
         <v>1600</v>
       </c>
       <c r="AG31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH31" s="9" t="n">
         <v>44615</v>
@@ -4608,7 +4671,9 @@
       <c r="AJ31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK31" s="3"/>
+      <c r="AK31" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,7 +4681,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>44557</v>
@@ -4713,7 +4778,7 @@
         <v>800</v>
       </c>
       <c r="AG32" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH32" s="9" t="n">
         <v>44615</v>
@@ -4724,7 +4789,9 @@
       <c r="AJ32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK32" s="3"/>
+      <c r="AK32" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4732,7 +4799,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5" t="n">
         <v>44557</v>
@@ -4817,10 +4884,10 @@
         <v>300</v>
       </c>
       <c r="AC33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD33" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE33" s="1" t="n">
         <v>0</v>
@@ -4840,7 +4907,9 @@
       <c r="AJ33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK33" s="3"/>
+      <c r="AK33" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,7 +4917,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>44559</v>
@@ -4951,12 +5020,14 @@
         <v>600</v>
       </c>
       <c r="AI34" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ34" s="11" t="n">
         <v>44618</v>
       </c>
-      <c r="AK34" s="3"/>
+      <c r="AK34" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,7 +5035,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="5" t="n">
         <v>44559</v>
@@ -5064,7 +5135,7 @@
         <v>800</v>
       </c>
       <c r="AH35" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI35" s="9" t="n">
         <v>44616</v>
@@ -5072,7 +5143,9 @@
       <c r="AJ35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK35" s="3"/>
+      <c r="AK35" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,7 +5153,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="5" t="n">
         <v>44560</v>
@@ -5186,7 +5259,7 @@
         <v>200</v>
       </c>
       <c r="AJ36" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK36" s="9" t="n">
         <v>44619</v>
@@ -5198,7 +5271,7 @@
         <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>44561</v>
@@ -5301,16 +5374,20 @@
         <v>8000</v>
       </c>
       <c r="AI37" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ37" s="9" t="n">
         <v>44618</v>
       </c>
-      <c r="AK37" s="3"/>
+      <c r="AK37" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B38" s="1" t="n">
         <v>0</v>
       </c>
@@ -5417,7 +5494,9 @@
       <c r="AJ38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK38" s="3"/>
+      <c r="AK38" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5425,7 +5504,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>44562</v>
@@ -5533,7 +5612,9 @@
       <c r="AJ39" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK39" s="3"/>
+      <c r="AK39" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,7 +5622,7 @@
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>44563</v>
@@ -5648,7 +5729,9 @@
       <c r="AJ40" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK40" s="3"/>
+      <c r="AK40" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,7 +5739,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="5" t="n">
         <v>44564</v>
@@ -5758,12 +5841,14 @@
         <v>1800</v>
       </c>
       <c r="AI41" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ41" s="9" t="n">
         <v>44618</v>
       </c>
-      <c r="AK41" s="3"/>
+      <c r="AK41" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,7 +5856,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>44564</v>
@@ -5878,7 +5963,9 @@
       <c r="AJ42" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK42" s="3"/>
+      <c r="AK42" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5886,7 +5973,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>44564</v>
@@ -5993,7 +6080,9 @@
       <c r="AJ43" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK43" s="3"/>
+      <c r="AK43" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6001,7 +6090,7 @@
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>44564</v>
@@ -6108,7 +6197,9 @@
       <c r="AJ44" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK44" s="3"/>
+      <c r="AK44" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6116,7 +6207,7 @@
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>44564</v>
@@ -6223,7 +6314,9 @@
       <c r="AJ45" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK45" s="3"/>
+      <c r="AK45" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6231,7 +6324,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>44564</v>
@@ -6338,7 +6431,9 @@
       <c r="AJ46" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AK46" s="3"/>
+      <c r="AK46" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6346,7 +6441,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" s="5" t="n">
         <v>44564</v>
@@ -6436,7 +6531,7 @@
         <v>1000</v>
       </c>
       <c r="AE47" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF47" s="9" t="n">
         <v>44613</v>
@@ -6453,7 +6548,9 @@
       <c r="AJ47" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK47" s="3"/>
+      <c r="AK47" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6461,7 +6558,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>44565</v>
@@ -6568,7 +6665,9 @@
       <c r="AJ48" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK48" s="3"/>
+      <c r="AK48" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6576,7 +6675,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>44565</v>
@@ -6683,7 +6782,9 @@
       <c r="AJ49" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK49" s="3"/>
+      <c r="AK49" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6691,7 +6792,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>44566</v>
@@ -6798,7 +6899,9 @@
       <c r="AJ50" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK50" s="3"/>
+      <c r="AK50" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6806,7 +6909,7 @@
         <v>60</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51" s="12" t="n">
         <v>44566</v>
@@ -6913,7 +7016,9 @@
       <c r="AJ51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK51" s="3"/>
+      <c r="AK51" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6921,7 +7026,7 @@
         <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52" s="12" t="n">
         <v>44566</v>
@@ -7028,7 +7133,9 @@
       <c r="AJ52" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK52" s="3"/>
+      <c r="AK52" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7036,7 +7143,7 @@
         <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" s="12" t="n">
         <v>44566</v>
@@ -7143,7 +7250,9 @@
       <c r="AJ53" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK53" s="3"/>
+      <c r="AK53" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7151,7 +7260,7 @@
         <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" s="12" t="n">
         <v>44567</v>
@@ -7258,7 +7367,9 @@
       <c r="AJ54" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK54" s="3"/>
+      <c r="AK54" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7266,7 +7377,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" s="12" t="n">
         <v>44567</v>
@@ -7373,7 +7484,9 @@
       <c r="AJ55" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK55" s="3"/>
+      <c r="AK55" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7381,7 +7494,7 @@
         <v>65</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56" s="12" t="n">
         <v>44567</v>
@@ -7488,7 +7601,9 @@
       <c r="AJ56" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK56" s="3"/>
+      <c r="AK56" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7496,7 +7611,7 @@
         <v>66</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C57" s="12" t="n">
         <v>44567</v>
@@ -7603,7 +7718,9 @@
       <c r="AJ57" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK57" s="3"/>
+      <c r="AK57" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7611,7 +7728,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58" s="13" t="n">
         <v>44568</v>
@@ -7718,7 +7835,9 @@
       <c r="AJ58" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK58" s="3"/>
+      <c r="AK58" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7726,7 +7845,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" s="13" t="n">
         <v>44568</v>
@@ -7833,7 +7952,9 @@
       <c r="AJ59" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK59" s="3"/>
+      <c r="AK59" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7841,7 +7962,7 @@
         <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C60" s="13" t="n">
         <v>44568</v>
@@ -7948,7 +8069,9 @@
       <c r="AJ60" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK60" s="3"/>
+      <c r="AK60" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7956,7 +8079,7 @@
         <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" s="13" t="n">
         <v>44569</v>
@@ -8063,7 +8186,9 @@
       <c r="AJ61" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK61" s="3"/>
+      <c r="AK61" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8071,7 +8196,7 @@
         <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62" s="13" t="n">
         <v>44569</v>
@@ -8178,7 +8303,9 @@
       <c r="AJ62" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK62" s="3"/>
+      <c r="AK62" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8186,7 +8313,7 @@
         <v>72</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63" s="13" t="n">
         <v>44570</v>
@@ -8293,7 +8420,9 @@
       <c r="AJ63" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK63" s="3"/>
+      <c r="AK63" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8301,7 +8430,7 @@
         <v>73</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C64" s="13" t="n">
         <v>44570</v>
@@ -8408,7 +8537,9 @@
       <c r="AJ64" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK64" s="3"/>
+      <c r="AK64" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8416,7 +8547,7 @@
         <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65" s="13" t="n">
         <v>44570</v>
@@ -8523,7 +8654,9 @@
       <c r="AJ65" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK65" s="3"/>
+      <c r="AK65" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8531,7 +8664,7 @@
         <v>75</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C66" s="13" t="n">
         <v>44571</v>
@@ -8638,7 +8771,9 @@
       <c r="AJ66" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK66" s="3"/>
+      <c r="AK66" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8646,7 +8781,7 @@
         <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67" s="13" t="n">
         <v>44571</v>
@@ -8753,7 +8888,9 @@
       <c r="AJ67" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK67" s="3"/>
+      <c r="AK67" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8761,7 +8898,7 @@
         <v>77</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68" s="13" t="n">
         <v>44571</v>
@@ -8868,7 +9005,9 @@
       <c r="AJ68" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK68" s="3"/>
+      <c r="AK68" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8876,7 +9015,7 @@
         <v>78</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C69" s="13" t="n">
         <v>44572</v>
@@ -8912,7 +9051,7 @@
         <v>600</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N69" s="1" t="n">
         <v>0</v>
@@ -8983,7 +9122,9 @@
       <c r="AJ69" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK69" s="3"/>
+      <c r="AK69" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8991,7 +9132,7 @@
         <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C70" s="13" t="n">
         <v>44572</v>
@@ -9098,7 +9239,9 @@
       <c r="AJ70" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK70" s="3"/>
+      <c r="AK70" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9106,7 +9249,7 @@
         <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C71" s="13" t="n">
         <v>44572</v>
@@ -9213,7 +9356,9 @@
       <c r="AJ71" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK71" s="3"/>
+      <c r="AK71" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9221,7 +9366,7 @@
         <v>81</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C72" s="13" t="n">
         <v>44572</v>
@@ -9328,7 +9473,9 @@
       <c r="AJ72" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK72" s="3"/>
+      <c r="AK72" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9336,7 +9483,7 @@
         <v>82</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C73" s="13" t="n">
         <v>44572</v>
@@ -9443,7 +9590,9 @@
       <c r="AJ73" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK73" s="3"/>
+      <c r="AK73" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9451,7 +9600,7 @@
         <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C74" s="13" t="n">
         <v>44573</v>
@@ -9558,7 +9707,9 @@
       <c r="AJ74" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK74" s="3"/>
+      <c r="AK74" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9566,7 +9717,7 @@
         <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C75" s="13" t="n">
         <v>44573</v>
@@ -9673,7 +9824,9 @@
       <c r="AJ75" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK75" s="3"/>
+      <c r="AK75" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9681,7 +9834,7 @@
         <v>85</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C76" s="13" t="n">
         <v>44573</v>
@@ -9788,7 +9941,9 @@
       <c r="AJ76" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK76" s="3"/>
+      <c r="AK76" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9796,7 +9951,7 @@
         <v>86</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C77" s="13" t="n">
         <v>44574</v>
@@ -9903,7 +10058,9 @@
       <c r="AJ77" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK77" s="3"/>
+      <c r="AK77" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9911,7 +10068,7 @@
         <v>87</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C78" s="13" t="n">
         <v>44574</v>
@@ -10018,7 +10175,9 @@
       <c r="AJ78" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK78" s="3"/>
+      <c r="AK78" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10026,7 +10185,7 @@
         <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C79" s="13" t="n">
         <v>44574</v>
@@ -10133,7 +10292,9 @@
       <c r="AJ79" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK79" s="3"/>
+      <c r="AK79" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10141,7 +10302,7 @@
         <v>89</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C80" s="13" t="n">
         <v>44574</v>
@@ -10248,7 +10409,9 @@
       <c r="AJ80" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK80" s="3"/>
+      <c r="AK80" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10256,7 +10419,7 @@
         <v>90</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C81" s="13" t="n">
         <v>44574</v>
@@ -10363,7 +10526,9 @@
       <c r="AJ81" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="AK81" s="3"/>
+      <c r="AK81" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10371,7 +10536,7 @@
         <v>91</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C82" s="13" t="n">
         <v>44576</v>
@@ -10478,7 +10643,9 @@
       <c r="AJ82" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AK82" s="3"/>
+      <c r="AK82" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10486,7 +10653,7 @@
         <v>92</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C83" s="13" t="n">
         <v>44576</v>
@@ -10593,7 +10760,9 @@
       <c r="AJ83" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK83" s="3"/>
+      <c r="AK83" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10601,7 +10770,7 @@
         <v>93</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C84" s="13" t="n">
         <v>44576</v>
@@ -10708,7 +10877,9 @@
       <c r="AJ84" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK84" s="3"/>
+      <c r="AK84" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10716,7 +10887,7 @@
         <v>94</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C85" s="13" t="n">
         <v>44576</v>
@@ -10823,7 +10994,9 @@
       <c r="AJ85" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK85" s="3"/>
+      <c r="AK85" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10831,7 +11004,7 @@
         <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C86" s="13" t="n">
         <v>44576</v>
@@ -10938,7 +11111,9 @@
       <c r="AJ86" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK86" s="3"/>
+      <c r="AK86" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10946,7 +11121,7 @@
         <v>96</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C87" s="13" t="n">
         <v>44577</v>
@@ -11053,7 +11228,9 @@
       <c r="AJ87" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK87" s="3"/>
+      <c r="AK87" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11061,7 +11238,7 @@
         <v>97</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C88" s="13" t="n">
         <v>44577</v>
@@ -11168,7 +11345,9 @@
       <c r="AJ88" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK88" s="3"/>
+      <c r="AK88" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11176,7 +11355,7 @@
         <v>98</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C89" s="13" t="n">
         <v>44577</v>
@@ -11283,7 +11462,9 @@
       <c r="AJ89" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK89" s="3"/>
+      <c r="AK89" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11291,7 +11472,7 @@
         <v>99</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C90" s="13" t="n">
         <v>44578</v>
@@ -11398,7 +11579,9 @@
       <c r="AJ90" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK90" s="3"/>
+      <c r="AK90" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11406,7 +11589,7 @@
         <v>100</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C91" s="13" t="n">
         <v>44578</v>
@@ -11513,7 +11696,9 @@
       <c r="AJ91" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK91" s="3"/>
+      <c r="AK91" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11521,7 +11706,7 @@
         <v>101</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C92" s="13" t="n">
         <v>44578</v>
@@ -11628,7 +11813,9 @@
       <c r="AJ92" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK92" s="3"/>
+      <c r="AK92" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11636,7 +11823,7 @@
         <v>102</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C93" s="13" t="n">
         <v>44578</v>
@@ -11743,7 +11930,9 @@
       <c r="AJ93" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK93" s="3"/>
+      <c r="AK93" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11751,7 +11940,7 @@
         <v>103</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C94" s="13" t="n">
         <v>44578</v>
@@ -11858,7 +12047,9 @@
       <c r="AJ94" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK94" s="3"/>
+      <c r="AK94" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11866,7 +12057,7 @@
         <v>104</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C95" s="13" t="n">
         <v>44579</v>
@@ -11973,7 +12164,9 @@
       <c r="AJ95" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK95" s="3"/>
+      <c r="AK95" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11981,7 +12174,7 @@
         <v>105</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C96" s="13" t="n">
         <v>44579</v>
@@ -12088,7 +12281,9 @@
       <c r="AJ96" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK96" s="3"/>
+      <c r="AK96" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12096,7 +12291,7 @@
         <v>106</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C97" s="13" t="n">
         <v>44579</v>
@@ -12203,7 +12398,9 @@
       <c r="AJ97" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK97" s="3"/>
+      <c r="AK97" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12211,7 +12408,7 @@
         <v>107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C98" s="13" t="n">
         <v>44580</v>
@@ -12318,7 +12515,9 @@
       <c r="AJ98" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK98" s="3"/>
+      <c r="AK98" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12326,7 +12525,7 @@
         <v>108</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C99" s="13" t="n">
         <v>44580</v>
@@ -12433,7 +12632,9 @@
       <c r="AJ99" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK99" s="3"/>
+      <c r="AK99" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12441,7 +12642,7 @@
         <v>109</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C100" s="13" t="n">
         <v>44580</v>
@@ -12548,7 +12749,9 @@
       <c r="AJ100" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK100" s="3"/>
+      <c r="AK100" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12556,7 +12759,7 @@
         <v>110</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C101" s="13" t="n">
         <v>44580</v>
@@ -12663,7 +12866,9 @@
       <c r="AJ101" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK101" s="3"/>
+      <c r="AK101" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12671,7 +12876,7 @@
         <v>111</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C102" s="13" t="n">
         <v>44581</v>
@@ -12778,7 +12983,9 @@
       <c r="AJ102" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK102" s="3"/>
+      <c r="AK102" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12786,7 +12993,7 @@
         <v>112</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C103" s="13" t="n">
         <v>44581</v>
@@ -12893,7 +13100,9 @@
       <c r="AJ103" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK103" s="3"/>
+      <c r="AK103" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12901,7 +13110,7 @@
         <v>113</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" s="13" t="n">
         <v>44581</v>
@@ -13008,7 +13217,9 @@
       <c r="AJ104" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK104" s="3"/>
+      <c r="AK104" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13016,7 +13227,7 @@
         <v>114</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C105" s="13" t="n">
         <v>44581</v>
@@ -13123,7 +13334,9 @@
       <c r="AJ105" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK105" s="3"/>
+      <c r="AK105" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL105" s="3"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13131,7 +13344,7 @@
         <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C106" s="13" t="n">
         <v>44582</v>
@@ -13238,7 +13451,9 @@
       <c r="AJ106" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK106" s="3"/>
+      <c r="AK106" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL106" s="3"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13246,7 +13461,7 @@
         <v>116</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C107" s="13" t="n">
         <v>44582</v>
@@ -13353,7 +13568,9 @@
       <c r="AJ107" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK107" s="3"/>
+      <c r="AK107" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL107" s="3"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13361,7 +13578,7 @@
         <v>117</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C108" s="13" t="n">
         <v>44582</v>
@@ -13468,7 +13685,9 @@
       <c r="AJ108" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK108" s="3"/>
+      <c r="AK108" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL108" s="3"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13476,7 +13695,7 @@
         <v>118</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C109" s="13" t="n">
         <v>44583</v>
@@ -13583,7 +13802,9 @@
       <c r="AJ109" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK109" s="3"/>
+      <c r="AK109" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL109" s="3"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13591,7 +13812,7 @@
         <v>119</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C110" s="13" t="n">
         <v>44583</v>
@@ -13698,7 +13919,9 @@
       <c r="AJ110" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK110" s="3"/>
+      <c r="AK110" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL110" s="3"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13706,7 +13929,7 @@
         <v>120</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C111" s="13" t="n">
         <v>44583</v>
@@ -13813,7 +14036,9 @@
       <c r="AJ111" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK111" s="3"/>
+      <c r="AK111" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL111" s="3"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13821,7 +14046,7 @@
         <v>121</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C112" s="13" t="n">
         <v>44583</v>
@@ -13928,7 +14153,9 @@
       <c r="AJ112" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK112" s="3"/>
+      <c r="AK112" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL112" s="3"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13936,7 +14163,7 @@
         <v>122</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C113" s="13" t="n">
         <v>44584</v>
@@ -14043,7 +14270,9 @@
       <c r="AJ113" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK113" s="3"/>
+      <c r="AK113" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL113" s="3"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14051,7 +14280,7 @@
         <v>123</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C114" s="13" t="n">
         <v>44584</v>
@@ -14158,7 +14387,9 @@
       <c r="AJ114" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK114" s="3"/>
+      <c r="AK114" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14166,7 +14397,7 @@
         <v>124</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C115" s="13" t="n">
         <v>44584</v>
@@ -14273,7 +14504,9 @@
       <c r="AJ115" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK115" s="3"/>
+      <c r="AK115" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL115" s="3"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14281,7 +14514,7 @@
         <v>125</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C116" s="13" t="n">
         <v>44584</v>
@@ -14388,7 +14621,9 @@
       <c r="AJ116" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK116" s="3"/>
+      <c r="AK116" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL116" s="3"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14396,7 +14631,7 @@
         <v>126</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C117" s="13" t="n">
         <v>44585</v>
@@ -14503,7 +14738,9 @@
       <c r="AJ117" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK117" s="3"/>
+      <c r="AK117" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14511,7 +14748,7 @@
         <v>127</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C118" s="13" t="n">
         <v>44585</v>
@@ -14618,7 +14855,9 @@
       <c r="AJ118" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK118" s="3"/>
+      <c r="AK118" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14626,7 +14865,7 @@
         <v>128</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C119" s="13" t="n">
         <v>44585</v>
@@ -14733,7 +14972,9 @@
       <c r="AJ119" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK119" s="3"/>
+      <c r="AK119" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL119" s="3"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14741,7 +14982,7 @@
         <v>129</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C120" s="13" t="n">
         <v>44585</v>
@@ -14848,7 +15089,9 @@
       <c r="AJ120" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK120" s="3"/>
+      <c r="AK120" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL120" s="3"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14856,7 +15099,7 @@
         <v>130</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C121" s="13" t="n">
         <v>44586</v>
@@ -14963,7 +15206,9 @@
       <c r="AJ121" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK121" s="3"/>
+      <c r="AK121" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL121" s="3"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14971,7 +15216,7 @@
         <v>131</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" s="13" t="n">
         <v>44586</v>
@@ -15078,7 +15323,9 @@
       <c r="AJ122" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK122" s="3"/>
+      <c r="AK122" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL122" s="3"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15086,7 +15333,7 @@
         <v>132</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" s="13" t="n">
         <v>44586</v>
@@ -15193,7 +15440,9 @@
       <c r="AJ123" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK123" s="3"/>
+      <c r="AK123" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL123" s="3"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15201,7 +15450,7 @@
         <v>133</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124" s="13" t="n">
         <v>44586</v>
@@ -15308,7 +15557,9 @@
       <c r="AJ124" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK124" s="3"/>
+      <c r="AK124" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15316,7 +15567,7 @@
         <v>134</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125" s="13" t="n">
         <v>44587</v>
@@ -15423,7 +15674,9 @@
       <c r="AJ125" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK125" s="3"/>
+      <c r="AK125" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL125" s="3"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15431,7 +15684,7 @@
         <v>135</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126" s="13" t="n">
         <v>44587</v>
@@ -15538,7 +15791,9 @@
       <c r="AJ126" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK126" s="3"/>
+      <c r="AK126" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15546,7 +15801,7 @@
         <v>136</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C127" s="13" t="n">
         <v>44587</v>
@@ -15653,7 +15908,9 @@
       <c r="AJ127" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK127" s="3"/>
+      <c r="AK127" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL127" s="3"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15661,7 +15918,7 @@
         <v>137</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128" s="13" t="n">
         <v>44587</v>
@@ -15768,7 +16025,9 @@
       <c r="AJ128" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK128" s="3"/>
+      <c r="AK128" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL128" s="3"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15776,7 +16035,7 @@
         <v>138</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C129" s="13" t="n">
         <v>44587</v>
@@ -15883,7 +16142,9 @@
       <c r="AJ129" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK129" s="3"/>
+      <c r="AK129" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL129" s="3"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15891,7 +16152,7 @@
         <v>139</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C130" s="13" t="n">
         <v>44588</v>
@@ -15998,7 +16259,9 @@
       <c r="AJ130" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK130" s="3"/>
+      <c r="AK130" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL130" s="3"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16006,7 +16269,7 @@
         <v>140</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C131" s="13" t="n">
         <v>44588</v>
@@ -16113,7 +16376,9 @@
       <c r="AJ131" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK131" s="3"/>
+      <c r="AK131" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL131" s="3"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16121,7 +16386,7 @@
         <v>141</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C132" s="13" t="n">
         <v>44588</v>
@@ -16228,7 +16493,9 @@
       <c r="AJ132" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK132" s="3"/>
+      <c r="AK132" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL132" s="3"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16236,7 +16503,7 @@
         <v>142</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C133" s="13" t="n">
         <v>44588</v>
@@ -16343,7 +16610,9 @@
       <c r="AJ133" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK133" s="3"/>
+      <c r="AK133" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL133" s="3"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16351,7 +16620,7 @@
         <v>143</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C134" s="13" t="n">
         <v>44589</v>
@@ -16458,7 +16727,9 @@
       <c r="AJ134" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AK134" s="3"/>
+      <c r="AK134" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL134" s="3"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16466,7 +16737,7 @@
         <v>144</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C135" s="13" t="n">
         <v>44589</v>
@@ -16573,7 +16844,9 @@
       <c r="AJ135" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK135" s="3"/>
+      <c r="AK135" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL135" s="3"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16581,7 +16854,7 @@
         <v>145</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C136" s="13" t="n">
         <v>44590</v>
@@ -16688,7 +16961,9 @@
       <c r="AJ136" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK136" s="3"/>
+      <c r="AK136" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL136" s="3"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16696,7 +16971,7 @@
         <v>146</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C137" s="13" t="n">
         <v>44590</v>
@@ -16803,7 +17078,9 @@
       <c r="AJ137" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK137" s="3"/>
+      <c r="AK137" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL137" s="3"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16811,7 +17088,7 @@
         <v>147</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C138" s="13" t="n">
         <v>44590</v>
@@ -16918,7 +17195,9 @@
       <c r="AJ138" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK138" s="3"/>
+      <c r="AK138" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL138" s="3"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16926,7 +17205,7 @@
         <v>148</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C139" s="13" t="n">
         <v>44590</v>
@@ -17033,7 +17312,9 @@
       <c r="AJ139" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK139" s="3"/>
+      <c r="AK139" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL139" s="3"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17041,7 +17322,7 @@
         <v>149</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C140" s="13" t="n">
         <v>44591</v>
@@ -17148,7 +17429,9 @@
       <c r="AJ140" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK140" s="3"/>
+      <c r="AK140" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL140" s="3"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17156,7 +17439,7 @@
         <v>150</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C141" s="13" t="n">
         <v>44591</v>
@@ -17263,7 +17546,9 @@
       <c r="AJ141" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK141" s="3"/>
+      <c r="AK141" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL141" s="3"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17271,7 +17556,7 @@
         <v>151</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C142" s="13" t="n">
         <v>44592</v>
@@ -17378,7 +17663,9 @@
       <c r="AJ142" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK142" s="3"/>
+      <c r="AK142" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL142" s="3"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17386,7 +17673,7 @@
         <v>152</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C143" s="13" t="n">
         <v>44592</v>
@@ -17493,7 +17780,9 @@
       <c r="AJ143" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK143" s="3"/>
+      <c r="AK143" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL143" s="3"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17501,7 +17790,7 @@
         <v>153</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C144" s="13" t="n">
         <v>44592</v>
@@ -17608,7 +17897,9 @@
       <c r="AJ144" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK144" s="3"/>
+      <c r="AK144" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17616,7 +17907,7 @@
         <v>154</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C145" s="13" t="n">
         <v>44593</v>
@@ -17723,7 +18014,9 @@
       <c r="AJ145" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK145" s="3"/>
+      <c r="AK145" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL145" s="3"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17731,7 +18024,7 @@
         <v>155</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C146" s="13" t="n">
         <v>44593</v>
@@ -17838,7 +18131,9 @@
       <c r="AJ146" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK146" s="3"/>
+      <c r="AK146" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL146" s="3"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17846,7 +18141,7 @@
         <v>156</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C147" s="13" t="n">
         <v>44594</v>
@@ -17953,7 +18248,9 @@
       <c r="AJ147" s="3" t="n">
         <v>1400</v>
       </c>
-      <c r="AK147" s="3"/>
+      <c r="AK147" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL147" s="3"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17961,7 +18258,7 @@
         <v>157</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C148" s="13" t="n">
         <v>44594</v>
@@ -18068,7 +18365,9 @@
       <c r="AJ148" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="AK148" s="3"/>
+      <c r="AK148" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL148" s="3"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18076,7 +18375,7 @@
         <v>158</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C149" s="13" t="n">
         <v>44595</v>
@@ -18183,7 +18482,9 @@
       <c r="AJ149" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK149" s="3"/>
+      <c r="AK149" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL149" s="3"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18191,7 +18492,7 @@
         <v>159</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C150" s="13" t="n">
         <v>44595</v>
@@ -18298,7 +18599,9 @@
       <c r="AJ150" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK150" s="3"/>
+      <c r="AK150" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL150" s="3"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18306,7 +18609,7 @@
         <v>160</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C151" s="13" t="n">
         <v>44596</v>
@@ -18413,7 +18716,9 @@
       <c r="AJ151" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK151" s="3"/>
+      <c r="AK151" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL151" s="3"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18421,7 +18726,7 @@
         <v>161</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C152" s="13" t="n">
         <v>44596</v>
@@ -18528,7 +18833,9 @@
       <c r="AJ152" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK152" s="3"/>
+      <c r="AK152" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL152" s="3"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18536,7 +18843,7 @@
         <v>162</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C153" s="13" t="n">
         <v>44596</v>
@@ -18643,7 +18950,9 @@
       <c r="AJ153" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK153" s="3"/>
+      <c r="AK153" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL153" s="3"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18651,7 +18960,7 @@
         <v>163</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C154" s="13" t="n">
         <v>44596</v>
@@ -18758,7 +19067,9 @@
       <c r="AJ154" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK154" s="3"/>
+      <c r="AK154" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL154" s="3"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18766,7 +19077,7 @@
         <v>164</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C155" s="13" t="n">
         <v>44597</v>
@@ -18873,7 +19184,9 @@
       <c r="AJ155" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AK155" s="3"/>
+      <c r="AK155" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL155" s="3"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18881,7 +19194,7 @@
         <v>165</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C156" s="13" t="n">
         <v>44597</v>
@@ -18988,7 +19301,9 @@
       <c r="AJ156" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK156" s="3"/>
+      <c r="AK156" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL156" s="3"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18996,7 +19311,7 @@
         <v>166</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C157" s="13" t="n">
         <v>44598</v>
@@ -19101,7 +19416,9 @@
       <c r="AJ157" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK157" s="3"/>
+      <c r="AK157" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL157" s="3"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19109,7 +19426,7 @@
         <v>167</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C158" s="13" t="n">
         <v>44598</v>
@@ -19214,7 +19531,9 @@
       <c r="AJ158" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK158" s="3"/>
+      <c r="AK158" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL158" s="3"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19222,7 +19541,7 @@
         <v>168</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C159" s="13" t="n">
         <v>44598</v>
@@ -19327,7 +19646,9 @@
       <c r="AJ159" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK159" s="3"/>
+      <c r="AK159" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL159" s="3"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19335,7 +19656,7 @@
         <v>169</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C160" s="13" t="n">
         <v>44599</v>
@@ -19440,7 +19761,9 @@
       <c r="AJ160" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK160" s="3"/>
+      <c r="AK160" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL160" s="3"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19448,7 +19771,7 @@
         <v>170</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C161" s="13" t="n">
         <v>44599</v>
@@ -19553,7 +19876,9 @@
       <c r="AJ161" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK161" s="3"/>
+      <c r="AK161" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL161" s="3"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19561,7 +19886,7 @@
         <v>171</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C162" s="13" t="n">
         <v>44600</v>
@@ -19667,7 +19992,9 @@
       <c r="AJ162" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK162" s="3"/>
+      <c r="AK162" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL162" s="3"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19675,7 +20002,7 @@
         <v>172</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C163" s="13" t="n">
         <v>44600</v>
@@ -19781,7 +20108,9 @@
       <c r="AJ163" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK163" s="3"/>
+      <c r="AK163" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL163" s="3"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19789,7 +20118,7 @@
         <v>173</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C164" s="13" t="n">
         <v>44601</v>
@@ -19894,7 +20223,9 @@
       <c r="AJ164" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK164" s="3"/>
+      <c r="AK164" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL164" s="3"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19902,7 +20233,7 @@
         <v>174</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C165" s="13" t="n">
         <v>44601</v>
@@ -20007,7 +20338,9 @@
       <c r="AJ165" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK165" s="3"/>
+      <c r="AK165" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL165" s="3"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20015,7 +20348,7 @@
         <v>175</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C166" s="13" t="n">
         <v>44601</v>
@@ -20120,7 +20453,9 @@
       <c r="AJ166" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK166" s="3"/>
+      <c r="AK166" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL166" s="3"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20128,7 +20463,7 @@
         <v>176</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C167" s="13" t="n">
         <v>44602</v>
@@ -20234,7 +20569,9 @@
       <c r="AJ167" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK167" s="3"/>
+      <c r="AK167" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL167" s="3"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20242,7 +20579,7 @@
         <v>177</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C168" s="13" t="n">
         <v>44602</v>
@@ -20348,7 +20685,9 @@
       <c r="AJ168" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK168" s="3"/>
+      <c r="AK168" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL168" s="3"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20356,7 +20695,7 @@
         <v>178</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C169" s="13" t="n">
         <v>44602</v>
@@ -20462,7 +20801,9 @@
       <c r="AJ169" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK169" s="3"/>
+      <c r="AK169" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL169" s="3"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20470,7 +20811,7 @@
         <v>179</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C170" s="13" t="n">
         <v>44603</v>
@@ -20574,7 +20915,9 @@
       <c r="AJ170" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK170" s="3"/>
+      <c r="AK170" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL170" s="3"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20582,7 +20925,7 @@
         <v>180</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C171" s="13" t="n">
         <v>44603</v>
@@ -20687,7 +21030,9 @@
       <c r="AJ171" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK171" s="3"/>
+      <c r="AK171" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL171" s="3"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20695,7 +21040,7 @@
         <v>181</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C172" s="13" t="n">
         <v>44603</v>
@@ -20800,7 +21145,9 @@
       <c r="AJ172" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK172" s="3"/>
+      <c r="AK172" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL172" s="3"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20808,7 +21155,7 @@
         <v>182</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C173" s="13" t="n">
         <v>44604</v>
@@ -20914,7 +21261,9 @@
       <c r="AJ173" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK173" s="3"/>
+      <c r="AK173" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL173" s="3"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20922,7 +21271,7 @@
         <v>183</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C174" s="13" t="n">
         <v>44604</v>
@@ -21028,7 +21377,9 @@
       <c r="AJ174" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK174" s="3"/>
+      <c r="AK174" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL174" s="3"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21036,7 +21387,7 @@
         <v>184</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C175" s="13" t="n">
         <v>44604</v>
@@ -21141,7 +21492,9 @@
       <c r="AJ175" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK175" s="3"/>
+      <c r="AK175" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL175" s="3"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21149,7 +21502,7 @@
         <v>185</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C176" s="13" t="n">
         <v>44604</v>
@@ -21255,7 +21608,9 @@
       <c r="AJ176" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK176" s="3"/>
+      <c r="AK176" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL176" s="3"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21263,7 +21618,7 @@
         <v>186</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C177" s="13" t="n">
         <v>44605</v>
@@ -21369,7 +21724,9 @@
       <c r="AJ177" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK177" s="3"/>
+      <c r="AK177" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL177" s="3"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21377,7 +21734,7 @@
         <v>187</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C178" s="13" t="n">
         <v>44605</v>
@@ -21483,7 +21840,9 @@
       <c r="AJ178" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK178" s="3"/>
+      <c r="AK178" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL178" s="3"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21491,7 +21850,7 @@
         <v>188</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C179" s="13" t="n">
         <v>44605</v>
@@ -21597,7 +21956,9 @@
       <c r="AJ179" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK179" s="3"/>
+      <c r="AK179" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL179" s="3"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21605,7 +21966,7 @@
         <v>189</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C180" s="13" t="n">
         <v>44606</v>
@@ -21711,7 +22072,9 @@
       <c r="AJ180" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK180" s="3"/>
+      <c r="AK180" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL180" s="3"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21719,7 +22082,7 @@
         <v>190</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C181" s="13" t="n">
         <v>44606</v>
@@ -21825,7 +22188,9 @@
       <c r="AJ181" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK181" s="3"/>
+      <c r="AK181" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL181" s="3"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21833,7 +22198,7 @@
         <v>191</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C182" s="13" t="n">
         <v>44606</v>
@@ -21939,7 +22304,9 @@
       <c r="AJ182" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK182" s="3"/>
+      <c r="AK182" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL182" s="3"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21947,7 +22314,7 @@
         <v>192</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C183" s="13" t="n">
         <v>44606</v>
@@ -22053,7 +22420,9 @@
       <c r="AJ183" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK183" s="3"/>
+      <c r="AK183" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL183" s="3"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22061,7 +22430,7 @@
         <v>193</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C184" s="13" t="n">
         <v>44607</v>
@@ -22167,7 +22536,9 @@
       <c r="AJ184" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK184" s="3"/>
+      <c r="AK184" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL184" s="3"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22175,7 +22546,7 @@
         <v>194</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C185" s="13" t="n">
         <v>44607</v>
@@ -22281,7 +22652,9 @@
       <c r="AJ185" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK185" s="3"/>
+      <c r="AK185" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL185" s="3"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22289,7 +22662,7 @@
         <v>195</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C186" s="13" t="n">
         <v>44607</v>
@@ -22395,7 +22768,9 @@
       <c r="AJ186" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK186" s="3"/>
+      <c r="AK186" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL186" s="3"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22403,7 +22778,7 @@
         <v>196</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C187" s="13" t="n">
         <v>44608</v>
@@ -22509,7 +22884,9 @@
       <c r="AJ187" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK187" s="3"/>
+      <c r="AK187" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL187" s="3"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22517,7 +22894,7 @@
         <v>197</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C188" s="13" t="n">
         <v>44608</v>
@@ -22623,7 +23000,9 @@
       <c r="AJ188" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK188" s="3"/>
+      <c r="AK188" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL188" s="3"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22631,7 +23010,7 @@
         <v>198</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C189" s="13" t="n">
         <v>44608</v>
@@ -22737,7 +23116,9 @@
       <c r="AJ189" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK189" s="3"/>
+      <c r="AK189" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL189" s="3"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22745,7 +23126,7 @@
         <v>199</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C190" s="13" t="n">
         <v>44609</v>
@@ -22851,7 +23232,9 @@
       <c r="AJ190" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK190" s="3"/>
+      <c r="AK190" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL190" s="3"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22859,7 +23242,7 @@
         <v>200</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C191" s="13" t="n">
         <v>44609</v>
@@ -22965,7 +23348,9 @@
       <c r="AJ191" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK191" s="3"/>
+      <c r="AK191" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="AL191" s="3"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22973,7 +23358,7 @@
         <v>201</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C192" s="13" t="n">
         <v>44610</v>
@@ -23078,6 +23463,9 @@
       </c>
       <c r="AJ192" s="3" t="n">
         <v>400</v>
+      </c>
+      <c r="AK192" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23085,7 +23473,7 @@
         <v>202</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C193" s="13" t="n">
         <v>44610</v>
@@ -23190,6 +23578,9 @@
       </c>
       <c r="AJ193" s="3" t="n">
         <v>400</v>
+      </c>
+      <c r="AK193" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23197,7 +23588,7 @@
         <v>203</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C194" s="13" t="n">
         <v>44610</v>
@@ -23302,6 +23693,9 @@
       </c>
       <c r="AJ194" s="3" t="n">
         <v>300</v>
+      </c>
+      <c r="AK194" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23309,7 +23703,7 @@
         <v>204</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C195" s="13" t="n">
         <v>44610</v>
@@ -23414,6 +23808,9 @@
       </c>
       <c r="AJ195" s="3" t="n">
         <v>800</v>
+      </c>
+      <c r="AK195" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23421,7 +23818,7 @@
         <v>205</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C196" s="13" t="n">
         <v>44611</v>
@@ -23526,6 +23923,9 @@
       </c>
       <c r="AJ196" s="3" t="n">
         <v>1000</v>
+      </c>
+      <c r="AK196" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23533,7 +23933,7 @@
         <v>206</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C197" s="13" t="n">
         <v>44611</v>
@@ -23638,6 +24038,9 @@
       </c>
       <c r="AJ197" s="3" t="n">
         <v>600</v>
+      </c>
+      <c r="AK197" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23645,7 +24048,7 @@
         <v>207</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C198" s="13" t="n">
         <v>44611</v>
@@ -23750,6 +24153,9 @@
       </c>
       <c r="AJ198" s="3" t="n">
         <v>500</v>
+      </c>
+      <c r="AK198" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23757,7 +24163,7 @@
         <v>208</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C199" s="13" t="n">
         <v>44611</v>
@@ -23862,6 +24268,9 @@
       </c>
       <c r="AJ199" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AK199" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23869,7 +24278,7 @@
         <v>209</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C200" s="13" t="n">
         <v>44612</v>
@@ -23974,6 +24383,9 @@
       </c>
       <c r="AJ200" s="3" t="n">
         <v>200</v>
+      </c>
+      <c r="AK200" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23981,7 +24393,7 @@
         <v>210</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C201" s="13" t="n">
         <v>44612</v>
@@ -24086,6 +24498,9 @@
       </c>
       <c r="AJ201" s="3" t="n">
         <v>200</v>
+      </c>
+      <c r="AK201" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24093,7 +24508,7 @@
         <v>211</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C202" s="13" t="n">
         <v>44612</v>
@@ -24198,6 +24613,9 @@
       </c>
       <c r="AJ202" s="3" t="n">
         <v>1000</v>
+      </c>
+      <c r="AK202" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24205,7 +24623,7 @@
         <v>212</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C203" s="13" t="n">
         <v>44612</v>
@@ -24310,6 +24728,9 @@
       </c>
       <c r="AJ203" s="3" t="n">
         <v>200</v>
+      </c>
+      <c r="AK203" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24317,7 +24738,7 @@
         <v>213</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C204" s="13" t="n">
         <v>44612</v>
@@ -24422,6 +24843,9 @@
       </c>
       <c r="AJ204" s="3" t="n">
         <v>600</v>
+      </c>
+      <c r="AK204" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24429,7 +24853,7 @@
         <v>214</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C205" s="13" t="n">
         <v>44612</v>
@@ -24534,6 +24958,9 @@
       </c>
       <c r="AJ205" s="3" t="n">
         <v>400</v>
+      </c>
+      <c r="AK205" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24541,7 +24968,7 @@
         <v>215</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C206" s="13" t="n">
         <v>44613</v>
@@ -24646,6 +25073,9 @@
       </c>
       <c r="AJ206" s="3" t="n">
         <v>2000</v>
+      </c>
+      <c r="AK206" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24653,7 +25083,7 @@
         <v>216</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C207" s="13" t="n">
         <v>44613</v>
@@ -24758,6 +25188,9 @@
       </c>
       <c r="AJ207" s="3" t="n">
         <v>400</v>
+      </c>
+      <c r="AK207" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24765,7 +25198,7 @@
         <v>217</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C208" s="13" t="n">
         <v>44613</v>
@@ -24870,6 +25303,9 @@
       </c>
       <c r="AJ208" s="3" t="n">
         <v>200</v>
+      </c>
+      <c r="AK208" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24877,7 +25313,7 @@
         <v>218</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C209" s="13" t="n">
         <v>44614</v>
@@ -24982,6 +25418,9 @@
       </c>
       <c r="AJ209" s="3" t="n">
         <v>800</v>
+      </c>
+      <c r="AK209" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24989,7 +25428,7 @@
         <v>219</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C210" s="13" t="n">
         <v>44614</v>
@@ -25094,6 +25533,9 @@
       </c>
       <c r="AJ210" s="3" t="n">
         <v>600</v>
+      </c>
+      <c r="AK210" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25101,7 +25543,7 @@
         <v>220</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C211" s="13" t="n">
         <v>44614</v>
@@ -25206,6 +25648,9 @@
       </c>
       <c r="AJ211" s="3" t="n">
         <v>200</v>
+      </c>
+      <c r="AK211" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25213,7 +25658,7 @@
         <v>221</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C212" s="13" t="n">
         <v>44614</v>
@@ -25318,6 +25763,9 @@
       </c>
       <c r="AJ212" s="3" t="n">
         <v>200</v>
+      </c>
+      <c r="AK212" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25325,7 +25773,7 @@
         <v>222</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C213" s="13" t="n">
         <v>44614</v>
@@ -25430,6 +25878,9 @@
       </c>
       <c r="AJ213" s="3" t="n">
         <v>400</v>
+      </c>
+      <c r="AK213" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25437,7 +25888,7 @@
         <v>223</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C214" s="13" t="n">
         <v>44615</v>
@@ -25542,6 +25993,9 @@
       </c>
       <c r="AJ214" s="3" t="n">
         <v>400</v>
+      </c>
+      <c r="AK214" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25549,7 +26003,7 @@
         <v>224</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C215" s="13" t="n">
         <v>44615</v>
@@ -25654,6 +26108,9 @@
       </c>
       <c r="AJ215" s="3" t="n">
         <v>400</v>
+      </c>
+      <c r="AK215" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25661,7 +26118,7 @@
         <v>225</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C216" s="13" t="n">
         <v>44615</v>
@@ -25766,6 +26223,9 @@
       </c>
       <c r="AJ216" s="3" t="n">
         <v>1000</v>
+      </c>
+      <c r="AK216" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25773,7 +26233,7 @@
         <v>226</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="13" t="n">
         <v>44615</v>
@@ -25878,6 +26338,9 @@
       </c>
       <c r="AJ217" s="3" t="n">
         <v>500</v>
+      </c>
+      <c r="AK217" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25885,7 +26348,7 @@
         <v>227</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C218" s="13" t="n">
         <v>44617</v>
@@ -25990,6 +26453,9 @@
       </c>
       <c r="AJ218" s="3" t="n">
         <v>400</v>
+      </c>
+      <c r="AK218" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25997,7 +26463,7 @@
         <v>228</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C219" s="13" t="n">
         <v>44617</v>
@@ -26102,6 +26568,9 @@
       </c>
       <c r="AJ219" s="3" t="n">
         <v>200</v>
+      </c>
+      <c r="AK219" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26109,7 +26578,7 @@
         <v>229</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C220" s="13" t="n">
         <v>44617</v>
@@ -26214,6 +26683,9 @@
       </c>
       <c r="AJ220" s="3" t="n">
         <v>1000</v>
+      </c>
+      <c r="AK220" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26221,7 +26693,7 @@
         <v>230</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="13" t="n">
         <v>44617</v>
@@ -26326,6 +26798,9 @@
       </c>
       <c r="AJ221" s="3" t="n">
         <v>300</v>
+      </c>
+      <c r="AK221" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26333,7 +26808,7 @@
         <v>231</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C222" s="13" t="n">
         <v>44618</v>
@@ -26438,6 +26913,9 @@
       </c>
       <c r="AJ222" s="3" t="n">
         <v>200</v>
+      </c>
+      <c r="AK222" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26445,7 +26923,7 @@
         <v>232</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C223" s="13" t="n">
         <v>44618</v>
@@ -26550,6 +27028,9 @@
       </c>
       <c r="AJ223" s="3" t="n">
         <v>200</v>
+      </c>
+      <c r="AK223" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26557,7 +27038,7 @@
         <v>233</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C224" s="13" t="n">
         <v>44618</v>
@@ -26662,6 +27143,9 @@
       </c>
       <c r="AJ224" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AK224" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26669,7 +27153,7 @@
         <v>234</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C225" s="13" t="n">
         <v>44619</v>
@@ -26774,6 +27258,9 @@
       </c>
       <c r="AJ225" s="3" t="n">
         <v>400</v>
+      </c>
+      <c r="AK225" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26781,7 +27268,7 @@
         <v>235</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C226" s="13" t="n">
         <v>44619</v>
@@ -26886,6 +27373,9 @@
       </c>
       <c r="AJ226" s="3" t="n">
         <v>200</v>
+      </c>
+      <c r="AK226" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26893,7 +27383,7 @@
         <v>236</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C227" s="13" t="n">
         <v>44619</v>
@@ -26998,6 +27488,9 @@
       </c>
       <c r="AJ227" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AK227" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27005,7 +27498,7 @@
         <v>237</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C228" s="13" t="n">
         <v>44619</v>
@@ -27110,6 +27603,9 @@
       </c>
       <c r="AJ228" s="3" t="n">
         <v>400</v>
+      </c>
+      <c r="AK228" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27117,7 +27613,7 @@
         <v>238</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C229" s="13" t="n">
         <v>44619</v>
@@ -27222,6 +27718,9 @@
       </c>
       <c r="AJ229" s="3" t="n">
         <v>300</v>
+      </c>
+      <c r="AK229" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27229,7 +27728,7 @@
         <v>239</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C230" s="13" t="n">
         <v>44619</v>
@@ -27334,6 +27833,9 @@
       </c>
       <c r="AJ230" s="3" t="n">
         <v>600</v>
+      </c>
+      <c r="AK230" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27341,7 +27843,7 @@
         <v>240</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C231" s="13" t="n">
         <v>44619</v>
@@ -27446,6 +27948,9 @@
       </c>
       <c r="AJ231" s="3" t="n">
         <v>1000</v>
+      </c>
+      <c r="AK231" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27453,7 +27958,7 @@
         <v>241</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C232" s="13" t="n">
         <v>44619</v>
@@ -27558,6 +28063,9 @@
       </c>
       <c r="AJ232" s="3" t="n">
         <v>300</v>
+      </c>
+      <c r="AK232" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27565,7 +28073,7 @@
         <v>242</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C233" s="13" t="n">
         <v>44620</v>
@@ -27670,6 +28178,9 @@
       </c>
       <c r="AJ233" s="3" t="n">
         <v>400</v>
+      </c>
+      <c r="AK233" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27677,7 +28188,7 @@
         <v>243</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C234" s="13" t="n">
         <v>44620</v>
@@ -27782,6 +28293,9 @@
       </c>
       <c r="AJ234" s="3" t="n">
         <v>400</v>
+      </c>
+      <c r="AK234" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27789,7 +28303,7 @@
         <v>244</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C235" s="13" t="n">
         <v>44620</v>
@@ -27894,6 +28408,9 @@
       </c>
       <c r="AJ235" s="3" t="n">
         <v>300</v>
+      </c>
+      <c r="AK235" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27901,7 +28418,7 @@
         <v>245</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C236" s="13" t="n">
         <v>44620</v>
@@ -28006,6 +28523,9 @@
       </c>
       <c r="AJ236" s="3" t="n">
         <v>600</v>
+      </c>
+      <c r="AK236" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28013,7 +28533,7 @@
         <v>246</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C237" s="13" t="n">
         <v>44620</v>
@@ -28118,6 +28638,9 @@
       </c>
       <c r="AJ237" s="3" t="n">
         <v>1000</v>
+      </c>
+      <c r="AK237" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/python_automation/MICRO feb.xlsx
+++ b/python_automation/MICRO feb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="234">
   <si>
     <t xml:space="preserve">Sr</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">Per day Amt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/25</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -892,13 +889,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR238"/>
+  <dimension ref="A1:AS238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A126" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C145" activeCellId="0" sqref="C145"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK1" activeCellId="1" sqref="AH2:AH237 AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14"/>
@@ -912,7 +909,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="10.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,35 +1006,38 @@
       <c r="AF1" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>8</v>
+      <c r="AG1" s="3" t="n">
+        <v>24</v>
       </c>
       <c r="AH1" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AI1" s="3" t="n">
+      <c r="AJ1" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="AJ1" s="3" t="n">
+      <c r="AK1" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AK1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL1" s="3"/>
+      <c r="AL1" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
       <c r="AP1" s="3"/>
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
@@ -1132,8 +1132,8 @@
       <c r="AG2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" s="1" t="n">
-        <v>0</v>
+      <c r="AH2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI2" s="1" t="n">
         <v>0</v>
@@ -1141,23 +1141,26 @@
       <c r="AJ2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL2" s="3"/>
+      <c r="AK2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>44508</v>
@@ -1185,7 +1188,7 @@
         <v>1000</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>0</v>
@@ -1256,8 +1259,8 @@
       <c r="AG3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH3" s="1" t="n">
-        <v>0</v>
+      <c r="AH3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI3" s="1" t="n">
         <v>0</v>
@@ -1265,23 +1268,26 @@
       <c r="AJ3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL3" s="3"/>
+      <c r="AK3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>44509</v>
@@ -1309,7 +1315,7 @@
         <v>400</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>0</v>
@@ -1380,8 +1386,8 @@
       <c r="AG4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH4" s="1" t="n">
-        <v>0</v>
+      <c r="AH4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI4" s="1" t="n">
         <v>0</v>
@@ -1389,23 +1395,26 @@
       <c r="AJ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL4" s="3"/>
+      <c r="AK4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>44512</v>
@@ -1433,7 +1442,7 @@
         <v>600</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>0</v>
@@ -1504,8 +1513,8 @@
       <c r="AG5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH5" s="1" t="n">
-        <v>0</v>
+      <c r="AH5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI5" s="1" t="n">
         <v>0</v>
@@ -1513,23 +1522,26 @@
       <c r="AJ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL5" s="3"/>
+      <c r="AK5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>44522</v>
@@ -1557,7 +1569,7 @@
         <v>200</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>0</v>
@@ -1628,8 +1640,8 @@
       <c r="AG6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH6" s="1" t="n">
-        <v>0</v>
+      <c r="AH6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI6" s="1" t="n">
         <v>0</v>
@@ -1637,23 +1649,26 @@
       <c r="AJ6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="3"/>
+      <c r="AK6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>44530</v>
@@ -1681,7 +1696,7 @@
         <v>400</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>0</v>
@@ -1752,8 +1767,8 @@
       <c r="AG7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH7" s="1" t="n">
-        <v>0</v>
+      <c r="AH7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI7" s="1" t="n">
         <v>0</v>
@@ -1761,23 +1776,26 @@
       <c r="AJ7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL7" s="3"/>
+      <c r="AK7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>44531</v>
@@ -1805,7 +1823,7 @@
         <v>400</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>0</v>
@@ -1876,8 +1894,8 @@
       <c r="AG8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH8" s="1" t="n">
-        <v>0</v>
+      <c r="AH8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI8" s="1" t="n">
         <v>0</v>
@@ -1885,23 +1903,26 @@
       <c r="AJ8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL8" s="3"/>
+      <c r="AK8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>44540</v>
@@ -1947,7 +1968,7 @@
         <v>2400</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="1" t="n">
         <v>0</v>
@@ -2000,8 +2021,8 @@
       <c r="AG9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH9" s="1" t="n">
-        <v>0</v>
+      <c r="AH9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI9" s="1" t="n">
         <v>0</v>
@@ -2009,23 +2030,26 @@
       <c r="AJ9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL9" s="3"/>
+      <c r="AK9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>44540</v>
@@ -2053,7 +2077,7 @@
         <v>1000</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>0</v>
@@ -2124,8 +2148,8 @@
       <c r="AG10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH10" s="1" t="n">
-        <v>0</v>
+      <c r="AH10" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI10" s="1" t="n">
         <v>0</v>
@@ -2133,23 +2157,26 @@
       <c r="AJ10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL10" s="3"/>
+      <c r="AK10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>44540</v>
@@ -2177,7 +2204,7 @@
         <v>800</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>0</v>
@@ -2248,8 +2275,8 @@
       <c r="AG11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH11" s="1" t="n">
-        <v>0</v>
+      <c r="AH11" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI11" s="1" t="n">
         <v>0</v>
@@ -2257,23 +2284,26 @@
       <c r="AJ11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL11" s="3"/>
+      <c r="AK11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>44542</v>
@@ -2304,7 +2334,7 @@
         <v>3200</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>0</v>
@@ -2372,8 +2402,8 @@
       <c r="AG12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH12" s="1" t="n">
-        <v>0</v>
+      <c r="AH12" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI12" s="1" t="n">
         <v>0</v>
@@ -2381,23 +2411,26 @@
       <c r="AJ12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL12" s="3"/>
+      <c r="AK12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>44543</v>
@@ -2431,7 +2464,7 @@
         <v>13500</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M13" s="1" t="n">
         <v>0</v>
@@ -2496,8 +2529,8 @@
       <c r="AG13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH13" s="1" t="n">
-        <v>0</v>
+      <c r="AH13" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI13" s="1" t="n">
         <v>0</v>
@@ -2505,23 +2538,26 @@
       <c r="AJ13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL13" s="3"/>
+      <c r="AK13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>44543</v>
@@ -2555,7 +2591,7 @@
         <v>12600</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M14" s="1" t="n">
         <v>0</v>
@@ -2620,8 +2656,8 @@
       <c r="AG14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH14" s="1" t="n">
-        <v>0</v>
+      <c r="AH14" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI14" s="1" t="n">
         <v>0</v>
@@ -2629,23 +2665,26 @@
       <c r="AJ14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL14" s="3"/>
+      <c r="AK14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>44544</v>
@@ -2706,7 +2745,7 @@
         <v>300</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V15" s="1" t="n">
         <v>0</v>
@@ -2744,8 +2783,8 @@
       <c r="AG15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH15" s="1" t="n">
-        <v>0</v>
+      <c r="AH15" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI15" s="1" t="n">
         <v>0</v>
@@ -2753,23 +2792,26 @@
       <c r="AJ15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL15" s="3"/>
+      <c r="AK15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>44546</v>
@@ -2836,7 +2878,7 @@
         <v>400</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X16" s="1" t="n">
         <v>0</v>
@@ -2868,8 +2910,8 @@
       <c r="AG16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH16" s="1" t="n">
-        <v>0</v>
+      <c r="AH16" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI16" s="1" t="n">
         <v>0</v>
@@ -2877,23 +2919,26 @@
       <c r="AJ16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL16" s="3"/>
+      <c r="AK16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
       <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>44548</v>
@@ -2963,7 +3008,7 @@
         <v>600</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y17" s="1" t="n">
         <v>0</v>
@@ -2992,8 +3037,8 @@
       <c r="AG17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH17" s="1" t="n">
-        <v>0</v>
+      <c r="AH17" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI17" s="1" t="n">
         <v>0</v>
@@ -3001,23 +3046,26 @@
       <c r="AJ17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL17" s="3"/>
+      <c r="AK17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
       <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>44549</v>
@@ -3096,7 +3144,7 @@
         <v>200</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB18" s="1" t="n">
         <v>0</v>
@@ -3116,8 +3164,8 @@
       <c r="AG18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH18" s="1" t="n">
-        <v>0</v>
+      <c r="AH18" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI18" s="1" t="n">
         <v>0</v>
@@ -3125,23 +3173,26 @@
       <c r="AJ18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL18" s="3"/>
+      <c r="AK18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>44550</v>
@@ -3220,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB19" s="8" t="n">
         <v>44610</v>
@@ -3240,8 +3291,8 @@
       <c r="AG19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH19" s="1" t="n">
-        <v>0</v>
+      <c r="AH19" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI19" s="1" t="n">
         <v>0</v>
@@ -3249,23 +3300,26 @@
       <c r="AJ19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL19" s="3"/>
+      <c r="AK19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>44552</v>
@@ -3353,7 +3407,7 @@
         <v>800</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE20" s="9" t="n">
         <v>44612</v>
@@ -3364,8 +3418,8 @@
       <c r="AG20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH20" s="1" t="n">
-        <v>0</v>
+      <c r="AH20" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI20" s="1" t="n">
         <v>0</v>
@@ -3373,17 +3427,20 @@
       <c r="AJ20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL20" s="3"/>
+      <c r="AK20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>44552</v>
@@ -3468,7 +3525,7 @@
         <v>1200</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD21" s="8" t="n">
         <v>44611</v>
@@ -3482,8 +3539,8 @@
       <c r="AG21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH21" s="1" t="n">
-        <v>0</v>
+      <c r="AH21" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI21" s="1" t="n">
         <v>0</v>
@@ -3491,17 +3548,20 @@
       <c r="AJ21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL21" s="3"/>
+      <c r="AK21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>44552</v>
@@ -3586,7 +3646,7 @@
         <v>400</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD22" s="8" t="n">
         <v>44611</v>
@@ -3600,8 +3660,8 @@
       <c r="AG22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH22" s="1" t="n">
-        <v>0</v>
+      <c r="AH22" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI22" s="1" t="n">
         <v>0</v>
@@ -3609,17 +3669,20 @@
       <c r="AJ22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL22" s="3"/>
+      <c r="AK22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>44553</v>
@@ -3707,7 +3770,7 @@
         <v>2000</v>
       </c>
       <c r="AD23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE23" s="9" t="n">
         <v>44612</v>
@@ -3718,8 +3781,8 @@
       <c r="AG23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH23" s="1" t="n">
-        <v>0</v>
+      <c r="AH23" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI23" s="1" t="n">
         <v>0</v>
@@ -3727,17 +3790,20 @@
       <c r="AJ23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL23" s="3"/>
+      <c r="AK23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>44553</v>
@@ -3825,7 +3891,7 @@
         <v>400</v>
       </c>
       <c r="AD24" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE24" s="9" t="n">
         <v>44612</v>
@@ -3836,8 +3902,8 @@
       <c r="AG24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH24" s="1" t="n">
-        <v>0</v>
+      <c r="AH24" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI24" s="1" t="n">
         <v>0</v>
@@ -3845,17 +3911,20 @@
       <c r="AJ24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL24" s="3"/>
+      <c r="AK24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>44554</v>
@@ -3937,7 +4006,7 @@
         <v>3000</v>
       </c>
       <c r="AB25" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC25" s="1" t="n">
         <v>0</v>
@@ -3954,8 +4023,8 @@
       <c r="AG25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH25" s="1" t="n">
-        <v>0</v>
+      <c r="AH25" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI25" s="1" t="n">
         <v>0</v>
@@ -3963,17 +4032,20 @@
       <c r="AJ25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL25" s="3"/>
+      <c r="AK25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>44554</v>
@@ -4052,7 +4124,7 @@
         <v>1000</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB26" s="8" t="n">
         <v>44609</v>
@@ -4072,8 +4144,8 @@
       <c r="AG26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH26" s="1" t="n">
-        <v>0</v>
+      <c r="AH26" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI26" s="1" t="n">
         <v>0</v>
@@ -4081,17 +4153,20 @@
       <c r="AJ26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL26" s="3"/>
+      <c r="AK26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>44555</v>
@@ -4182,7 +4257,7 @@
         <v>800</v>
       </c>
       <c r="AE27" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF27" s="9" t="n">
         <v>44613</v>
@@ -4190,8 +4265,8 @@
       <c r="AG27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH27" s="1" t="n">
-        <v>0</v>
+      <c r="AH27" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>0</v>
@@ -4199,17 +4274,20 @@
       <c r="AJ27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL27" s="3"/>
+      <c r="AK27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>44555</v>
@@ -4297,7 +4375,7 @@
         <v>2100</v>
       </c>
       <c r="AD28" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE28" s="9" t="n">
         <v>44612</v>
@@ -4308,8 +4386,8 @@
       <c r="AG28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH28" s="1" t="n">
-        <v>0</v>
+      <c r="AH28" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI28" s="1" t="n">
         <v>0</v>
@@ -4317,17 +4395,20 @@
       <c r="AJ28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL28" s="3"/>
+      <c r="AK28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>44556</v>
@@ -4418,7 +4499,7 @@
         <v>1200</v>
       </c>
       <c r="AE29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF29" s="9" t="n">
         <v>44613</v>
@@ -4426,8 +4507,8 @@
       <c r="AG29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH29" s="1" t="n">
-        <v>0</v>
+      <c r="AH29" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI29" s="1" t="n">
         <v>0</v>
@@ -4435,17 +4516,20 @@
       <c r="AJ29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL29" s="3"/>
+      <c r="AK29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>44556</v>
@@ -4533,7 +4617,7 @@
         <v>400</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE30" s="9" t="n">
         <v>44612</v>
@@ -4544,8 +4628,8 @@
       <c r="AG30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH30" s="1" t="n">
-        <v>0</v>
+      <c r="AH30" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI30" s="1" t="n">
         <v>0</v>
@@ -4553,17 +4637,20 @@
       <c r="AJ30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL30" s="3"/>
+      <c r="AK30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="n">
         <v>44557</v>
@@ -4660,28 +4747,31 @@
         <v>1600</v>
       </c>
       <c r="AG31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH31" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI31" s="9" t="n">
         <v>44615</v>
       </c>
-      <c r="AI31" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL31" s="3"/>
+      <c r="AK31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>44557</v>
@@ -4778,28 +4868,31 @@
         <v>800</v>
       </c>
       <c r="AG32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH32" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI32" s="9" t="n">
         <v>44615</v>
       </c>
-      <c r="AI32" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL32" s="3"/>
+      <c r="AK32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="5" t="n">
         <v>44557</v>
@@ -4884,10 +4977,10 @@
         <v>300</v>
       </c>
       <c r="AC33" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD33" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE33" s="1" t="n">
         <v>0</v>
@@ -4898,8 +4991,8 @@
       <c r="AG33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH33" s="1" t="n">
-        <v>0</v>
+      <c r="AH33" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI33" s="1" t="n">
         <v>0</v>
@@ -4907,17 +5000,20 @@
       <c r="AJ33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL33" s="3"/>
+      <c r="AK33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>44559</v>
@@ -5016,26 +5112,29 @@
       <c r="AG34" s="3" t="n">
         <v>1800</v>
       </c>
-      <c r="AH34" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="AI34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ34" s="11" t="n">
+      <c r="AH34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI34" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AJ34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK34" s="11" t="n">
         <v>44618</v>
       </c>
-      <c r="AK34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL34" s="3"/>
+      <c r="AL34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="5" t="n">
         <v>44559</v>
@@ -5135,25 +5234,28 @@
         <v>800</v>
       </c>
       <c r="AH35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI35" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ35" s="9" t="n">
         <v>44616</v>
       </c>
-      <c r="AJ35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL35" s="3"/>
+      <c r="AK35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="5" t="n">
         <v>44560</v>
@@ -5252,26 +5354,29 @@
       <c r="AG36" s="7" t="n">
         <v>400</v>
       </c>
-      <c r="AH36" s="7" t="n">
-        <v>400</v>
+      <c r="AH36" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="AI36" s="7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK36" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ36" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL36" s="9" t="n">
         <v>44619</v>
       </c>
-      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>44561</v>
@@ -5370,23 +5475,26 @@
       <c r="AG37" s="7" t="n">
         <v>2000</v>
       </c>
-      <c r="AH37" s="7" t="n">
+      <c r="AH37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI37" s="7" t="n">
         <v>8000</v>
       </c>
-      <c r="AI37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ37" s="9" t="n">
+      <c r="AJ37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK37" s="9" t="n">
         <v>44618</v>
       </c>
-      <c r="AK37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL37" s="3"/>
+      <c r="AL37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>0</v>
@@ -5485,8 +5593,8 @@
       <c r="AG38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH38" s="1" t="n">
-        <v>0</v>
+      <c r="AH38" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI38" s="1" t="n">
         <v>0</v>
@@ -5494,17 +5602,20 @@
       <c r="AJ38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL38" s="3"/>
+      <c r="AK38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>44562</v>
@@ -5603,26 +5714,29 @@
       <c r="AG39" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AH39" s="3" t="n">
-        <v>600</v>
+      <c r="AH39" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI39" s="3" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AJ39" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL39" s="3"/>
+      <c r="AK39" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>44563</v>
@@ -5720,26 +5834,29 @@
       <c r="AG40" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH40" s="3" t="n">
-        <v>800</v>
+      <c r="AH40" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI40" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ40" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL40" s="3"/>
+      <c r="AK40" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="5" t="n">
         <v>44564</v>
@@ -5837,26 +5954,29 @@
       <c r="AG41" s="7" t="n">
         <v>900</v>
       </c>
-      <c r="AH41" s="7" t="n">
+      <c r="AH41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI41" s="7" t="n">
         <v>1800</v>
       </c>
-      <c r="AI41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ41" s="9" t="n">
+      <c r="AJ41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK41" s="9" t="n">
         <v>44618</v>
       </c>
-      <c r="AK41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL41" s="3"/>
+      <c r="AL41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>44564</v>
@@ -5954,26 +6074,29 @@
       <c r="AG42" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AH42" s="3" t="n">
+      <c r="AH42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI42" s="3" t="n">
         <v>1000</v>
-      </c>
-      <c r="AI42" s="3" t="n">
-        <v>500</v>
       </c>
       <c r="AJ42" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL42" s="3"/>
+      <c r="AK42" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>44564</v>
@@ -6071,8 +6194,8 @@
       <c r="AG43" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AH43" s="3" t="n">
-        <v>1000</v>
+      <c r="AH43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI43" s="3" t="n">
         <v>1000</v>
@@ -6080,17 +6203,20 @@
       <c r="AJ43" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL43" s="3"/>
+      <c r="AK43" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>44564</v>
@@ -6188,8 +6314,8 @@
       <c r="AG44" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH44" s="3" t="n">
-        <v>200</v>
+      <c r="AH44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI44" s="3" t="n">
         <v>200</v>
@@ -6197,17 +6323,20 @@
       <c r="AJ44" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL44" s="3"/>
+      <c r="AK44" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>44564</v>
@@ -6305,8 +6434,8 @@
       <c r="AG45" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AH45" s="3" t="n">
-        <v>600</v>
+      <c r="AH45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI45" s="3" t="n">
         <v>600</v>
@@ -6314,17 +6443,20 @@
       <c r="AJ45" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL45" s="3"/>
+      <c r="AK45" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>44564</v>
@@ -6422,26 +6554,29 @@
       <c r="AG46" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AH46" s="3" t="n">
+      <c r="AH46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI46" s="3" t="n">
         <v>2400</v>
-      </c>
-      <c r="AI46" s="3" t="n">
-        <v>1200</v>
       </c>
       <c r="AJ46" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AK46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL46" s="3"/>
+      <c r="AK46" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AL46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="5" t="n">
         <v>44564</v>
@@ -6531,7 +6666,7 @@
         <v>1000</v>
       </c>
       <c r="AE47" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF47" s="9" t="n">
         <v>44613</v>
@@ -6539,8 +6674,8 @@
       <c r="AG47" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH47" s="1" t="n">
-        <v>0</v>
+      <c r="AH47" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI47" s="1" t="n">
         <v>0</v>
@@ -6548,17 +6683,20 @@
       <c r="AJ47" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL47" s="3"/>
+      <c r="AK47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>44565</v>
@@ -6656,8 +6794,8 @@
       <c r="AG48" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AH48" s="3" t="n">
-        <v>500</v>
+      <c r="AH48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI48" s="3" t="n">
         <v>500</v>
@@ -6665,17 +6803,20 @@
       <c r="AJ48" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL48" s="3"/>
+      <c r="AK48" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>44565</v>
@@ -6773,8 +6914,8 @@
       <c r="AG49" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AH49" s="3" t="n">
-        <v>600</v>
+      <c r="AH49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI49" s="3" t="n">
         <v>600</v>
@@ -6782,17 +6923,20 @@
       <c r="AJ49" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL49" s="3"/>
+      <c r="AK49" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>44566</v>
@@ -6890,26 +7034,29 @@
       <c r="AG50" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH50" s="3" t="n">
+      <c r="AH50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI50" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="AI50" s="3" t="n">
-        <v>800</v>
-      </c>
       <c r="AJ50" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL50" s="3"/>
+      <c r="AK50" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" s="12" t="n">
         <v>44566</v>
@@ -7007,26 +7154,29 @@
       <c r="AG51" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH51" s="3" t="n">
-        <v>800</v>
-      </c>
-      <c r="AI51" s="1" t="n">
-        <v>0</v>
+      <c r="AH51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI51" s="3" t="n">
+        <v>800</v>
       </c>
       <c r="AJ51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK51" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL51" s="3"/>
+      <c r="AK51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="12" t="n">
         <v>44566</v>
@@ -7124,8 +7274,8 @@
       <c r="AG52" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AH52" s="3" t="n">
-        <v>1000</v>
+      <c r="AH52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI52" s="3" t="n">
         <v>1000</v>
@@ -7133,17 +7283,20 @@
       <c r="AJ52" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL52" s="3"/>
+      <c r="AK52" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="12" t="n">
         <v>44566</v>
@@ -7241,8 +7394,8 @@
       <c r="AG53" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH53" s="3" t="n">
-        <v>400</v>
+      <c r="AH53" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI53" s="3" t="n">
         <v>400</v>
@@ -7250,17 +7403,20 @@
       <c r="AJ53" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL53" s="3"/>
+      <c r="AK53" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="12" t="n">
         <v>44567</v>
@@ -7358,26 +7514,29 @@
       <c r="AG54" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AH54" s="3" t="n">
+      <c r="AH54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI54" s="3" t="n">
         <v>2000</v>
-      </c>
-      <c r="AI54" s="3" t="n">
-        <v>1000</v>
       </c>
       <c r="AJ54" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL54" s="3"/>
+      <c r="AK54" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="12" t="n">
         <v>44567</v>
@@ -7475,26 +7634,29 @@
       <c r="AG55" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH55" s="3" t="n">
-        <v>800</v>
+      <c r="AH55" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI55" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ55" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL55" s="3"/>
+      <c r="AK55" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" s="12" t="n">
         <v>44567</v>
@@ -7592,26 +7754,29 @@
       <c r="AG56" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH56" s="3" t="n">
-        <v>600</v>
+      <c r="AH56" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI56" s="3" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AJ56" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL56" s="3"/>
+      <c r="AK56" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="12" t="n">
         <v>44567</v>
@@ -7709,8 +7874,8 @@
       <c r="AG57" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH57" s="3" t="n">
-        <v>200</v>
+      <c r="AH57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI57" s="3" t="n">
         <v>200</v>
@@ -7718,17 +7883,20 @@
       <c r="AJ57" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL57" s="3"/>
+      <c r="AK57" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="13" t="n">
         <v>44568</v>
@@ -7826,26 +7994,29 @@
       <c r="AG58" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH58" s="3" t="n">
-        <v>600</v>
+      <c r="AH58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI58" s="3" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AJ58" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL58" s="3"/>
+      <c r="AK58" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="13" t="n">
         <v>44568</v>
@@ -7943,8 +8114,8 @@
       <c r="AG59" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH59" s="3" t="n">
-        <v>200</v>
+      <c r="AH59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI59" s="3" t="n">
         <v>200</v>
@@ -7952,17 +8123,20 @@
       <c r="AJ59" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL59" s="3"/>
+      <c r="AK59" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="13" t="n">
         <v>44568</v>
@@ -8060,8 +8234,8 @@
       <c r="AG60" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH60" s="3" t="n">
-        <v>400</v>
+      <c r="AH60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI60" s="3" t="n">
         <v>400</v>
@@ -8069,17 +8243,20 @@
       <c r="AJ60" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL60" s="3"/>
+      <c r="AK60" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="13" t="n">
         <v>44569</v>
@@ -8177,8 +8354,8 @@
       <c r="AG61" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AH61" s="3" t="n">
-        <v>1000</v>
+      <c r="AH61" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI61" s="3" t="n">
         <v>1000</v>
@@ -8186,17 +8363,20 @@
       <c r="AJ61" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL61" s="3"/>
+      <c r="AK61" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" s="13" t="n">
         <v>44569</v>
@@ -8294,8 +8474,8 @@
       <c r="AG62" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH62" s="3" t="n">
-        <v>400</v>
+      <c r="AH62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI62" s="3" t="n">
         <v>400</v>
@@ -8303,17 +8483,20 @@
       <c r="AJ62" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL62" s="3"/>
+      <c r="AK62" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" s="13" t="n">
         <v>44570</v>
@@ -8411,26 +8594,29 @@
       <c r="AG63" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AH63" s="3" t="n">
+      <c r="AH63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI63" s="3" t="n">
         <v>1000</v>
-      </c>
-      <c r="AI63" s="3" t="n">
-        <v>500</v>
       </c>
       <c r="AJ63" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL63" s="3"/>
+      <c r="AK63" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64" s="13" t="n">
         <v>44570</v>
@@ -8528,8 +8714,8 @@
       <c r="AG64" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH64" s="3" t="n">
-        <v>200</v>
+      <c r="AH64" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI64" s="3" t="n">
         <v>200</v>
@@ -8537,17 +8723,20 @@
       <c r="AJ64" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL64" s="3"/>
+      <c r="AK64" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="13" t="n">
         <v>44570</v>
@@ -8645,26 +8834,29 @@
       <c r="AG65" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH65" s="3" t="n">
-        <v>800</v>
+      <c r="AH65" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI65" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ65" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL65" s="3"/>
+      <c r="AK65" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="13" t="n">
         <v>44571</v>
@@ -8762,26 +8954,29 @@
       <c r="AG66" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH66" s="3" t="n">
-        <v>800</v>
+      <c r="AH66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI66" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ66" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL66" s="3"/>
+      <c r="AK66" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="13" t="n">
         <v>44571</v>
@@ -8879,26 +9074,29 @@
       <c r="AG67" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH67" s="3" t="n">
-        <v>800</v>
+      <c r="AH67" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI67" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ67" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL67" s="3"/>
+      <c r="AK67" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="13" t="n">
         <v>44571</v>
@@ -8996,8 +9194,8 @@
       <c r="AG68" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH68" s="3" t="n">
-        <v>800</v>
+      <c r="AH68" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI68" s="3" t="n">
         <v>800</v>
@@ -9005,17 +9203,20 @@
       <c r="AJ68" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL68" s="3"/>
+      <c r="AK68" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="13" t="n">
         <v>44572</v>
@@ -9051,7 +9252,7 @@
         <v>600</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N69" s="1" t="n">
         <v>0</v>
@@ -9113,26 +9314,29 @@
       <c r="AG69" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH69" s="3" t="n">
-        <v>600</v>
+      <c r="AH69" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI69" s="3" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AJ69" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL69" s="3"/>
+      <c r="AK69" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70" s="13" t="n">
         <v>44572</v>
@@ -9230,26 +9434,29 @@
       <c r="AG70" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH70" s="3" t="n">
-        <v>800</v>
-      </c>
-      <c r="AI70" s="1" t="n">
-        <v>0</v>
+      <c r="AH70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI70" s="3" t="n">
+        <v>800</v>
       </c>
       <c r="AJ70" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL70" s="3"/>
+      <c r="AK70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="13" t="n">
         <v>44572</v>
@@ -9347,8 +9554,8 @@
       <c r="AG71" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH71" s="3" t="n">
-        <v>400</v>
+      <c r="AH71" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI71" s="3" t="n">
         <v>400</v>
@@ -9356,17 +9563,20 @@
       <c r="AJ71" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL71" s="3"/>
+      <c r="AK71" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" s="13" t="n">
         <v>44572</v>
@@ -9464,8 +9674,8 @@
       <c r="AG72" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH72" s="3" t="n">
-        <v>400</v>
+      <c r="AH72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI72" s="3" t="n">
         <v>400</v>
@@ -9473,17 +9683,20 @@
       <c r="AJ72" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL72" s="3"/>
+      <c r="AK72" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="13" t="n">
         <v>44572</v>
@@ -9581,8 +9794,8 @@
       <c r="AG73" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH73" s="3" t="n">
-        <v>400</v>
+      <c r="AH73" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI73" s="3" t="n">
         <v>400</v>
@@ -9590,17 +9803,20 @@
       <c r="AJ73" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL73" s="3"/>
+      <c r="AK73" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" s="13" t="n">
         <v>44573</v>
@@ -9698,26 +9914,29 @@
       <c r="AG74" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH74" s="3" t="n">
+      <c r="AH74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI74" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AI74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ74" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="AK74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL74" s="3"/>
+      <c r="AJ74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" s="13" t="n">
         <v>44573</v>
@@ -9815,26 +10034,29 @@
       <c r="AG75" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH75" s="3" t="n">
-        <v>200</v>
+      <c r="AH75" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI75" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AJ75" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL75" s="3"/>
+      <c r="AJ75" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" s="13" t="n">
         <v>44573</v>
@@ -9932,8 +10154,8 @@
       <c r="AG76" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH76" s="3" t="n">
-        <v>400</v>
+      <c r="AH76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI76" s="3" t="n">
         <v>400</v>
@@ -9941,17 +10163,20 @@
       <c r="AJ76" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL76" s="3"/>
+      <c r="AK76" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C77" s="13" t="n">
         <v>44574</v>
@@ -10049,26 +10274,29 @@
       <c r="AG77" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI77" s="3" t="n">
-        <v>400</v>
+      <c r="AH77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI77" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ77" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL77" s="3"/>
+      <c r="AK77" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" s="13" t="n">
         <v>44574</v>
@@ -10166,8 +10394,8 @@
       <c r="AG78" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH78" s="3" t="n">
-        <v>300</v>
+      <c r="AH78" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI78" s="3" t="n">
         <v>300</v>
@@ -10175,17 +10403,20 @@
       <c r="AJ78" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL78" s="3"/>
+      <c r="AK78" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" s="13" t="n">
         <v>44574</v>
@@ -10283,26 +10514,29 @@
       <c r="AG79" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH79" s="3" t="n">
+      <c r="AH79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI79" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AI79" s="3" t="n">
-        <v>600</v>
-      </c>
       <c r="AJ79" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL79" s="3"/>
+      <c r="AK79" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C80" s="13" t="n">
         <v>44574</v>
@@ -10400,8 +10634,8 @@
       <c r="AG80" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AH80" s="3" t="n">
-        <v>500</v>
+      <c r="AH80" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI80" s="3" t="n">
         <v>500</v>
@@ -10409,17 +10643,20 @@
       <c r="AJ80" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL80" s="3"/>
+      <c r="AK80" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" s="13" t="n">
         <v>44574</v>
@@ -10517,8 +10754,8 @@
       <c r="AG81" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH81" s="3" t="n">
-        <v>100</v>
+      <c r="AH81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI81" s="3" t="n">
         <v>100</v>
@@ -10526,17 +10763,20 @@
       <c r="AJ81" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="AK81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL81" s="3"/>
+      <c r="AK81" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82" s="13" t="n">
         <v>44576</v>
@@ -10634,26 +10874,29 @@
       <c r="AG82" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AH82" s="3" t="n">
+      <c r="AH82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI82" s="3" t="n">
         <v>2400</v>
-      </c>
-      <c r="AI82" s="3" t="n">
-        <v>1200</v>
       </c>
       <c r="AJ82" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AK82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL82" s="3"/>
+      <c r="AK82" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AL82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" s="13" t="n">
         <v>44576</v>
@@ -10751,26 +10994,29 @@
       <c r="AG83" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH83" s="3" t="n">
-        <v>800</v>
+      <c r="AH83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI83" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ83" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL83" s="3"/>
+      <c r="AK83" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="13" t="n">
         <v>44576</v>
@@ -10868,8 +11114,8 @@
       <c r="AG84" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH84" s="3" t="n">
-        <v>600</v>
+      <c r="AH84" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI84" s="3" t="n">
         <v>600</v>
@@ -10877,17 +11123,20 @@
       <c r="AJ84" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL84" s="3"/>
+      <c r="AK84" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" s="13" t="n">
         <v>44576</v>
@@ -10985,8 +11234,8 @@
       <c r="AG85" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH85" s="3" t="n">
-        <v>300</v>
+      <c r="AH85" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI85" s="3" t="n">
         <v>300</v>
@@ -10994,17 +11243,20 @@
       <c r="AJ85" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL85" s="3"/>
+      <c r="AK85" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM85" s="3"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="13" t="n">
         <v>44576</v>
@@ -11102,26 +11354,29 @@
       <c r="AG86" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH86" s="3" t="n">
-        <v>800</v>
+      <c r="AH86" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI86" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ86" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL86" s="3"/>
+      <c r="AK86" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM86" s="3"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" s="13" t="n">
         <v>44577</v>
@@ -11219,26 +11474,29 @@
       <c r="AG87" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI87" s="3" t="n">
-        <v>400</v>
+      <c r="AH87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI87" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ87" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL87" s="3"/>
+      <c r="AK87" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM87" s="3"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" s="13" t="n">
         <v>44577</v>
@@ -11336,26 +11594,29 @@
       <c r="AG88" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH88" s="3" t="n">
-        <v>600</v>
+      <c r="AH88" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI88" s="3" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="AJ88" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL88" s="3"/>
+      <c r="AK88" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM88" s="3"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" s="13" t="n">
         <v>44577</v>
@@ -11453,26 +11714,29 @@
       <c r="AG89" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AH89" s="3" t="n">
+      <c r="AH89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI89" s="3" t="n">
         <v>1000</v>
-      </c>
-      <c r="AI89" s="3" t="n">
-        <v>500</v>
       </c>
       <c r="AJ89" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL89" s="3"/>
+      <c r="AK89" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM89" s="3"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C90" s="13" t="n">
         <v>44578</v>
@@ -11570,26 +11834,29 @@
       <c r="AG90" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH90" s="3" t="n">
+      <c r="AH90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI90" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="AI90" s="3" t="n">
-        <v>800</v>
-      </c>
       <c r="AJ90" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL90" s="3"/>
+      <c r="AK90" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM90" s="3"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C91" s="13" t="n">
         <v>44578</v>
@@ -11687,26 +11954,29 @@
       <c r="AG91" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH91" s="3" t="n">
-        <v>800</v>
+      <c r="AH91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI91" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ91" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL91" s="3"/>
+      <c r="AK91" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM91" s="3"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C92" s="13" t="n">
         <v>44578</v>
@@ -11804,26 +12074,29 @@
       <c r="AG92" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH92" s="3" t="n">
-        <v>600</v>
+      <c r="AH92" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI92" s="3" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AJ92" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL92" s="3"/>
+      <c r="AK92" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM92" s="3"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C93" s="13" t="n">
         <v>44578</v>
@@ -11921,26 +12194,29 @@
       <c r="AG93" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH93" s="3" t="n">
+      <c r="AH93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI93" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AI93" s="3" t="n">
-        <v>400</v>
-      </c>
       <c r="AJ93" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL93" s="3"/>
+      <c r="AK93" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C94" s="13" t="n">
         <v>44578</v>
@@ -12038,26 +12314,29 @@
       <c r="AG94" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH94" s="3" t="n">
-        <v>800</v>
+      <c r="AH94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI94" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ94" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL94" s="3"/>
+      <c r="AK94" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM94" s="3"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C95" s="13" t="n">
         <v>44579</v>
@@ -12155,26 +12434,29 @@
       <c r="AG95" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH95" s="3" t="n">
+      <c r="AH95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI95" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AI95" s="3" t="n">
-        <v>600</v>
-      </c>
       <c r="AJ95" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL95" s="3"/>
+      <c r="AK95" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM95" s="3"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C96" s="13" t="n">
         <v>44579</v>
@@ -12272,8 +12554,8 @@
       <c r="AG96" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="AH96" s="3" t="n">
-        <v>500</v>
+      <c r="AH96" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI96" s="3" t="n">
         <v>500</v>
@@ -12281,17 +12563,20 @@
       <c r="AJ96" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK96" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL96" s="3"/>
+      <c r="AK96" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM96" s="3"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C97" s="13" t="n">
         <v>44579</v>
@@ -12389,26 +12674,29 @@
       <c r="AG97" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH97" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI97" s="3" t="n">
-        <v>300</v>
+      <c r="AH97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI97" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ97" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK97" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL97" s="3"/>
+      <c r="AK97" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM97" s="3"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C98" s="13" t="n">
         <v>44580</v>
@@ -12506,26 +12794,29 @@
       <c r="AG98" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH98" s="3" t="n">
-        <v>400</v>
+      <c r="AH98" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI98" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ98" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL98" s="3"/>
+      <c r="AK98" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM98" s="3"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C99" s="13" t="n">
         <v>44580</v>
@@ -12623,8 +12914,8 @@
       <c r="AG99" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AH99" s="3" t="n">
-        <v>600</v>
+      <c r="AH99" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI99" s="3" t="n">
         <v>600</v>
@@ -12632,17 +12923,20 @@
       <c r="AJ99" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL99" s="3"/>
+      <c r="AK99" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM99" s="3"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C100" s="13" t="n">
         <v>44580</v>
@@ -12740,26 +13034,29 @@
       <c r="AG100" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH100" s="3" t="n">
-        <v>800</v>
+      <c r="AH100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI100" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ100" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL100" s="3"/>
+      <c r="AK100" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM100" s="3"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C101" s="13" t="n">
         <v>44580</v>
@@ -12857,26 +13154,29 @@
       <c r="AG101" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH101" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI101" s="3" t="n">
-        <v>400</v>
+      <c r="AH101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI101" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ101" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL101" s="3"/>
+      <c r="AK101" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM101" s="3"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C102" s="13" t="n">
         <v>44581</v>
@@ -12974,8 +13274,8 @@
       <c r="AG102" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AH102" s="3" t="n">
-        <v>600</v>
+      <c r="AH102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI102" s="3" t="n">
         <v>600</v>
@@ -12983,17 +13283,20 @@
       <c r="AJ102" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL102" s="3"/>
+      <c r="AK102" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM102" s="3"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C103" s="13" t="n">
         <v>44581</v>
@@ -13091,8 +13394,8 @@
       <c r="AG103" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH103" s="3" t="n">
-        <v>300</v>
+      <c r="AH103" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI103" s="3" t="n">
         <v>300</v>
@@ -13100,17 +13403,20 @@
       <c r="AJ103" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL103" s="3"/>
+      <c r="AK103" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM103" s="3"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C104" s="13" t="n">
         <v>44581</v>
@@ -13208,26 +13514,29 @@
       <c r="AG104" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH104" s="3" t="n">
-        <v>800</v>
+      <c r="AH104" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI104" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ104" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL104" s="3"/>
+      <c r="AK104" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM104" s="3"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C105" s="13" t="n">
         <v>44581</v>
@@ -13325,26 +13634,29 @@
       <c r="AG105" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH105" s="3" t="n">
-        <v>400</v>
+      <c r="AH105" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI105" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ105" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL105" s="3"/>
+      <c r="AK105" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM105" s="3"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" s="13" t="n">
         <v>44582</v>
@@ -13442,8 +13754,8 @@
       <c r="AG106" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH106" s="3" t="n">
-        <v>400</v>
+      <c r="AH106" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI106" s="3" t="n">
         <v>400</v>
@@ -13451,17 +13763,20 @@
       <c r="AJ106" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL106" s="3"/>
+      <c r="AK106" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM106" s="3"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" s="13" t="n">
         <v>44582</v>
@@ -13559,8 +13874,8 @@
       <c r="AG107" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH107" s="3" t="n">
-        <v>600</v>
+      <c r="AH107" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI107" s="3" t="n">
         <v>600</v>
@@ -13568,17 +13883,20 @@
       <c r="AJ107" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL107" s="3"/>
+      <c r="AK107" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM107" s="3"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" s="13" t="n">
         <v>44582</v>
@@ -13676,8 +13994,8 @@
       <c r="AG108" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH108" s="3" t="n">
-        <v>300</v>
+      <c r="AH108" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI108" s="3" t="n">
         <v>300</v>
@@ -13685,17 +14003,20 @@
       <c r="AJ108" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK108" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL108" s="3"/>
+      <c r="AK108" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM108" s="3"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109" s="13" t="n">
         <v>44583</v>
@@ -13793,26 +14114,29 @@
       <c r="AG109" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH109" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI109" s="3" t="n">
-        <v>200</v>
+      <c r="AH109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI109" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ109" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL109" s="3"/>
+      <c r="AK109" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM109" s="3"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110" s="13" t="n">
         <v>44583</v>
@@ -13910,26 +14234,29 @@
       <c r="AG110" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AH110" s="3" t="n">
-        <v>600</v>
+      <c r="AH110" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI110" s="3" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AJ110" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK110" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL110" s="3"/>
+      <c r="AK110" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM110" s="3"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C111" s="13" t="n">
         <v>44583</v>
@@ -14027,8 +14354,8 @@
       <c r="AG111" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH111" s="3" t="n">
-        <v>300</v>
+      <c r="AH111" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI111" s="3" t="n">
         <v>300</v>
@@ -14036,17 +14363,20 @@
       <c r="AJ111" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL111" s="3"/>
+      <c r="AK111" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM111" s="3"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C112" s="13" t="n">
         <v>44583</v>
@@ -14144,26 +14474,29 @@
       <c r="AG112" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH112" s="3" t="n">
-        <v>800</v>
-      </c>
-      <c r="AI112" s="1" t="n">
-        <v>0</v>
+      <c r="AH112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI112" s="3" t="n">
+        <v>800</v>
       </c>
       <c r="AJ112" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL112" s="3"/>
+      <c r="AK112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM112" s="3"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C113" s="13" t="n">
         <v>44584</v>
@@ -14261,26 +14594,29 @@
       <c r="AG113" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH113" s="3" t="n">
-        <v>600</v>
+      <c r="AH113" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI113" s="3" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AJ113" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL113" s="3"/>
+      <c r="AK113" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM113" s="3"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C114" s="13" t="n">
         <v>44584</v>
@@ -14378,8 +14714,8 @@
       <c r="AG114" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH114" s="3" t="n">
-        <v>400</v>
+      <c r="AH114" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI114" s="3" t="n">
         <v>400</v>
@@ -14387,17 +14723,20 @@
       <c r="AJ114" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL114" s="3"/>
+      <c r="AK114" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM114" s="3"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C115" s="13" t="n">
         <v>44584</v>
@@ -14495,26 +14834,29 @@
       <c r="AG115" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH115" s="3" t="n">
-        <v>600</v>
+      <c r="AH115" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI115" s="3" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="AJ115" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL115" s="3"/>
+      <c r="AK115" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM115" s="3"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C116" s="13" t="n">
         <v>44584</v>
@@ -14612,8 +14954,8 @@
       <c r="AG116" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH116" s="3" t="n">
-        <v>200</v>
+      <c r="AH116" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI116" s="3" t="n">
         <v>200</v>
@@ -14621,17 +14963,20 @@
       <c r="AJ116" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL116" s="3"/>
+      <c r="AK116" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM116" s="3"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C117" s="13" t="n">
         <v>44585</v>
@@ -14729,8 +15074,8 @@
       <c r="AG117" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH117" s="3" t="n">
-        <v>800</v>
+      <c r="AH117" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI117" s="3" t="n">
         <v>800</v>
@@ -14738,17 +15083,20 @@
       <c r="AJ117" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK117" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL117" s="3"/>
+      <c r="AK117" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM117" s="3"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C118" s="13" t="n">
         <v>44585</v>
@@ -14846,8 +15194,8 @@
       <c r="AG118" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH118" s="3" t="n">
-        <v>200</v>
+      <c r="AH118" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI118" s="3" t="n">
         <v>200</v>
@@ -14855,17 +15203,20 @@
       <c r="AJ118" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK118" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL118" s="3"/>
+      <c r="AK118" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM118" s="3"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C119" s="13" t="n">
         <v>44585</v>
@@ -14963,26 +15314,29 @@
       <c r="AG119" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH119" s="3" t="n">
-        <v>800</v>
-      </c>
-      <c r="AI119" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ119" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="AK119" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL119" s="3"/>
+      <c r="AH119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI119" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AJ119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK119" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM119" s="3"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C120" s="13" t="n">
         <v>44585</v>
@@ -15080,26 +15434,29 @@
       <c r="AG120" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH120" s="3" t="n">
-        <v>800</v>
+      <c r="AH120" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI120" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ120" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL120" s="3"/>
+      <c r="AK120" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM120" s="3"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C121" s="13" t="n">
         <v>44586</v>
@@ -15197,8 +15554,8 @@
       <c r="AG121" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="AH121" s="3" t="n">
-        <v>800</v>
+      <c r="AH121" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI121" s="3" t="n">
         <v>800</v>
@@ -15206,17 +15563,20 @@
       <c r="AJ121" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL121" s="3"/>
+      <c r="AK121" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM121" s="3"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C122" s="13" t="n">
         <v>44586</v>
@@ -15314,8 +15674,8 @@
       <c r="AG122" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH122" s="3" t="n">
-        <v>400</v>
+      <c r="AH122" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI122" s="3" t="n">
         <v>400</v>
@@ -15323,17 +15683,20 @@
       <c r="AJ122" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK122" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL122" s="3"/>
+      <c r="AK122" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM122" s="3"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C123" s="13" t="n">
         <v>44586</v>
@@ -15431,26 +15794,29 @@
       <c r="AG123" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH123" s="3" t="n">
+      <c r="AH123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI123" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AI123" s="3" t="n">
-        <v>600</v>
-      </c>
       <c r="AJ123" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL123" s="3"/>
+      <c r="AK123" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM123" s="3"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C124" s="13" t="n">
         <v>44586</v>
@@ -15548,8 +15914,8 @@
       <c r="AG124" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AH124" s="3" t="n">
-        <v>500</v>
+      <c r="AH124" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI124" s="3" t="n">
         <v>500</v>
@@ -15557,17 +15923,20 @@
       <c r="AJ124" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK124" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL124" s="3"/>
+      <c r="AK124" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM124" s="3"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C125" s="13" t="n">
         <v>44587</v>
@@ -15665,8 +16034,8 @@
       <c r="AG125" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH125" s="3" t="n">
-        <v>200</v>
+      <c r="AH125" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI125" s="3" t="n">
         <v>200</v>
@@ -15674,17 +16043,20 @@
       <c r="AJ125" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK125" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL125" s="3"/>
+      <c r="AK125" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM125" s="3"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C126" s="13" t="n">
         <v>44587</v>
@@ -15782,26 +16154,29 @@
       <c r="AG126" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH126" s="3" t="n">
-        <v>400</v>
+      <c r="AH126" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI126" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ126" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL126" s="3"/>
+      <c r="AK126" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM126" s="3"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C127" s="13" t="n">
         <v>44587</v>
@@ -15899,26 +16274,29 @@
       <c r="AG127" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH127" s="3" t="n">
-        <v>800</v>
+      <c r="AH127" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI127" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ127" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK127" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL127" s="3"/>
+      <c r="AK127" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM127" s="3"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C128" s="13" t="n">
         <v>44587</v>
@@ -16016,8 +16394,8 @@
       <c r="AG128" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH128" s="3" t="n">
-        <v>400</v>
+      <c r="AH128" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI128" s="3" t="n">
         <v>400</v>
@@ -16025,17 +16403,20 @@
       <c r="AJ128" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK128" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL128" s="3"/>
+      <c r="AK128" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM128" s="3"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C129" s="13" t="n">
         <v>44587</v>
@@ -16133,8 +16514,8 @@
       <c r="AG129" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH129" s="3" t="n">
-        <v>400</v>
+      <c r="AH129" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI129" s="3" t="n">
         <v>400</v>
@@ -16142,17 +16523,20 @@
       <c r="AJ129" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK129" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL129" s="3"/>
+      <c r="AK129" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM129" s="3"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C130" s="13" t="n">
         <v>44588</v>
@@ -16250,26 +16634,29 @@
       <c r="AG130" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH130" s="3" t="n">
+      <c r="AH130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI130" s="3" t="n">
         <v>1800</v>
       </c>
-      <c r="AI130" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ130" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="AK130" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL130" s="3"/>
+      <c r="AJ130" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK130" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM130" s="3"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C131" s="13" t="n">
         <v>44588</v>
@@ -16367,26 +16754,29 @@
       <c r="AG131" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH131" s="3" t="n">
+      <c r="AH131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI131" s="3" t="n">
         <v>1800</v>
       </c>
-      <c r="AI131" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ131" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="AK131" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL131" s="3"/>
+      <c r="AJ131" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK131" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM131" s="3"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132" s="13" t="n">
         <v>44588</v>
@@ -16484,8 +16874,8 @@
       <c r="AG132" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AH132" s="3" t="n">
-        <v>200</v>
+      <c r="AH132" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI132" s="3" t="n">
         <v>200</v>
@@ -16493,17 +16883,20 @@
       <c r="AJ132" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK132" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL132" s="3"/>
+      <c r="AK132" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM132" s="3"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" s="13" t="n">
         <v>44588</v>
@@ -16601,8 +16994,8 @@
       <c r="AG133" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="AH133" s="3" t="n">
-        <v>300</v>
+      <c r="AH133" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI133" s="3" t="n">
         <v>300</v>
@@ -16610,17 +17003,20 @@
       <c r="AJ133" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK133" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL133" s="3"/>
+      <c r="AK133" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM133" s="3"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C134" s="13" t="n">
         <v>44589</v>
@@ -16718,8 +17114,8 @@
       <c r="AG134" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AH134" s="3" t="n">
-        <v>1200</v>
+      <c r="AH134" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI134" s="3" t="n">
         <v>1200</v>
@@ -16727,17 +17123,20 @@
       <c r="AJ134" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AK134" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL134" s="3"/>
+      <c r="AK134" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AL134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM134" s="3"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C135" s="13" t="n">
         <v>44589</v>
@@ -16835,26 +17234,29 @@
       <c r="AG135" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AH135" s="3" t="n">
+      <c r="AH135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI135" s="3" t="n">
         <v>2000</v>
-      </c>
-      <c r="AI135" s="3" t="n">
-        <v>1000</v>
       </c>
       <c r="AJ135" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK135" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL135" s="3"/>
+      <c r="AK135" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM135" s="3"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C136" s="13" t="n">
         <v>44590</v>
@@ -16952,26 +17354,29 @@
       <c r="AG136" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH136" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI136" s="3" t="n">
-        <v>400</v>
+      <c r="AH136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI136" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ136" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK136" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL136" s="3"/>
+      <c r="AK136" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM136" s="3"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C137" s="13" t="n">
         <v>44590</v>
@@ -17069,8 +17474,8 @@
       <c r="AG137" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH137" s="3" t="n">
-        <v>400</v>
+      <c r="AH137" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI137" s="3" t="n">
         <v>400</v>
@@ -17078,17 +17483,20 @@
       <c r="AJ137" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK137" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL137" s="3"/>
+      <c r="AK137" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM137" s="3"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C138" s="13" t="n">
         <v>44590</v>
@@ -17186,26 +17594,29 @@
       <c r="AG138" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH138" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI138" s="3" t="n">
-        <v>800</v>
+      <c r="AH138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI138" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ138" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK138" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL138" s="3"/>
+      <c r="AK138" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM138" s="3"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C139" s="13" t="n">
         <v>44590</v>
@@ -17303,26 +17714,29 @@
       <c r="AG139" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH139" s="3" t="n">
+      <c r="AH139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI139" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AI139" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ139" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK139" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL139" s="3"/>
+      <c r="AJ139" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK139" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM139" s="3"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C140" s="13" t="n">
         <v>44591</v>
@@ -17420,26 +17834,29 @@
       <c r="AG140" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AH140" s="3" t="n">
+      <c r="AH140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI140" s="3" t="n">
         <v>2000</v>
-      </c>
-      <c r="AI140" s="3" t="n">
-        <v>1000</v>
       </c>
       <c r="AJ140" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK140" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL140" s="3"/>
+      <c r="AK140" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM140" s="3"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C141" s="13" t="n">
         <v>44591</v>
@@ -17537,8 +17954,8 @@
       <c r="AG141" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AH141" s="3" t="n">
-        <v>300</v>
+      <c r="AH141" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI141" s="3" t="n">
         <v>300</v>
@@ -17546,17 +17963,20 @@
       <c r="AJ141" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK141" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL141" s="3"/>
+      <c r="AK141" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM141" s="3"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C142" s="13" t="n">
         <v>44592</v>
@@ -17654,26 +18074,29 @@
       <c r="AG142" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH142" s="3" t="n">
-        <v>400</v>
+      <c r="AH142" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI142" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ142" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK142" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL142" s="3"/>
+      <c r="AK142" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM142" s="3"/>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C143" s="13" t="n">
         <v>44592</v>
@@ -17771,26 +18194,29 @@
       <c r="AG143" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH143" s="3" t="n">
-        <v>400</v>
+      <c r="AH143" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI143" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ143" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK143" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL143" s="3"/>
+      <c r="AK143" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM143" s="3"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C144" s="13" t="n">
         <v>44592</v>
@@ -17888,26 +18314,29 @@
       <c r="AG144" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AH144" s="3" t="n">
+      <c r="AH144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI144" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="AI144" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ144" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK144" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL144" s="3"/>
+      <c r="AK144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM144" s="3"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C145" s="13" t="n">
         <v>44593</v>
@@ -18005,26 +18434,29 @@
       <c r="AG145" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH145" s="3" t="n">
+      <c r="AH145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI145" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AI145" s="3" t="n">
-        <v>400</v>
-      </c>
       <c r="AJ145" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK145" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL145" s="3"/>
+      <c r="AK145" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM145" s="3"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" s="13" t="n">
         <v>44593</v>
@@ -18122,8 +18554,8 @@
       <c r="AG146" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH146" s="3" t="n">
-        <v>400</v>
+      <c r="AH146" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI146" s="3" t="n">
         <v>400</v>
@@ -18131,17 +18563,20 @@
       <c r="AJ146" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK146" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL146" s="3"/>
+      <c r="AK146" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM146" s="3"/>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C147" s="13" t="n">
         <v>44594</v>
@@ -18239,8 +18674,8 @@
       <c r="AG147" s="3" t="n">
         <v>1400</v>
       </c>
-      <c r="AH147" s="3" t="n">
-        <v>1400</v>
+      <c r="AH147" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI147" s="3" t="n">
         <v>1400</v>
@@ -18248,17 +18683,20 @@
       <c r="AJ147" s="3" t="n">
         <v>1400</v>
       </c>
-      <c r="AK147" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL147" s="3"/>
+      <c r="AK147" s="3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="AL147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM147" s="3"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C148" s="13" t="n">
         <v>44594</v>
@@ -18356,8 +18794,8 @@
       <c r="AG148" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="AH148" s="3" t="n">
-        <v>1500</v>
+      <c r="AH148" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI148" s="3" t="n">
         <v>1500</v>
@@ -18365,17 +18803,20 @@
       <c r="AJ148" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="AK148" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL148" s="3"/>
+      <c r="AK148" s="3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AL148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM148" s="3"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C149" s="13" t="n">
         <v>44595</v>
@@ -18473,8 +18914,8 @@
       <c r="AG149" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH149" s="3" t="n">
-        <v>200</v>
+      <c r="AH149" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI149" s="3" t="n">
         <v>200</v>
@@ -18482,17 +18923,20 @@
       <c r="AJ149" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK149" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL149" s="3"/>
+      <c r="AK149" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM149" s="3"/>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C150" s="13" t="n">
         <v>44595</v>
@@ -18590,26 +19034,29 @@
       <c r="AG150" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH150" s="3" t="n">
+      <c r="AH150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI150" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AI150" s="3" t="n">
-        <v>600</v>
-      </c>
       <c r="AJ150" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK150" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL150" s="3"/>
+      <c r="AK150" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM150" s="3"/>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C151" s="13" t="n">
         <v>44596</v>
@@ -18707,26 +19154,29 @@
       <c r="AG151" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH151" s="3" t="n">
-        <v>800</v>
+      <c r="AH151" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI151" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ151" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK151" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL151" s="3"/>
+      <c r="AK151" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM151" s="3"/>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C152" s="13" t="n">
         <v>44596</v>
@@ -18824,8 +19274,8 @@
       <c r="AG152" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH152" s="3" t="n">
-        <v>400</v>
+      <c r="AH152" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI152" s="3" t="n">
         <v>400</v>
@@ -18833,17 +19283,20 @@
       <c r="AJ152" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK152" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL152" s="3"/>
+      <c r="AK152" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM152" s="3"/>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C153" s="13" t="n">
         <v>44596</v>
@@ -18941,26 +19394,29 @@
       <c r="AG153" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH153" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI153" s="3" t="n">
-        <v>200</v>
+      <c r="AH153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI153" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ153" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK153" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL153" s="3"/>
+      <c r="AK153" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM153" s="3"/>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C154" s="13" t="n">
         <v>44596</v>
@@ -19058,26 +19514,29 @@
       <c r="AG154" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH154" s="3" t="n">
-        <v>800</v>
+      <c r="AH154" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI154" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ154" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK154" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL154" s="3"/>
+      <c r="AK154" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM154" s="3"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C155" s="13" t="n">
         <v>44597</v>
@@ -19175,8 +19634,8 @@
       <c r="AG155" s="3" t="n">
         <v>2400</v>
       </c>
-      <c r="AH155" s="3" t="n">
-        <v>1200</v>
+      <c r="AH155" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI155" s="3" t="n">
         <v>1200</v>
@@ -19184,17 +19643,20 @@
       <c r="AJ155" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AK155" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL155" s="3"/>
+      <c r="AK155" s="3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AL155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM155" s="3"/>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C156" s="13" t="n">
         <v>44597</v>
@@ -19292,8 +19754,8 @@
       <c r="AG156" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH156" s="3" t="n">
-        <v>400</v>
+      <c r="AH156" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI156" s="3" t="n">
         <v>400</v>
@@ -19301,17 +19763,20 @@
       <c r="AJ156" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK156" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL156" s="3"/>
+      <c r="AK156" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM156" s="3"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C157" s="13" t="n">
         <v>44598</v>
@@ -19407,26 +19872,29 @@
       <c r="AG157" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH157" s="3" t="n">
+      <c r="AH157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI157" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AI157" s="3" t="n">
-        <v>400</v>
-      </c>
       <c r="AJ157" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK157" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL157" s="3"/>
+      <c r="AK157" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM157" s="3"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C158" s="13" t="n">
         <v>44598</v>
@@ -19522,8 +19990,8 @@
       <c r="AG158" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH158" s="3" t="n">
-        <v>400</v>
+      <c r="AH158" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI158" s="3" t="n">
         <v>400</v>
@@ -19531,17 +19999,20 @@
       <c r="AJ158" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK158" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL158" s="3"/>
+      <c r="AK158" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM158" s="3"/>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C159" s="13" t="n">
         <v>44598</v>
@@ -19637,26 +20108,29 @@
       <c r="AG159" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH159" s="3" t="n">
-        <v>400</v>
+      <c r="AH159" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI159" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ159" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK159" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL159" s="3"/>
+      <c r="AK159" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM159" s="3"/>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C160" s="13" t="n">
         <v>44599</v>
@@ -19752,26 +20226,29 @@
       <c r="AG160" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH160" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI160" s="3" t="n">
-        <v>200</v>
+      <c r="AH160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI160" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ160" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK160" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL160" s="3"/>
+      <c r="AK160" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM160" s="3"/>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C161" s="13" t="n">
         <v>44599</v>
@@ -19867,26 +20344,29 @@
       <c r="AG161" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH161" s="3" t="n">
+      <c r="AH161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI161" s="3" t="n">
         <v>1000</v>
-      </c>
-      <c r="AI161" s="3" t="n">
-        <v>500</v>
       </c>
       <c r="AJ161" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK161" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL161" s="3"/>
+      <c r="AK161" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM161" s="3"/>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C162" s="13" t="n">
         <v>44600</v>
@@ -19983,26 +20463,29 @@
       <c r="AG162" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="AH162" s="3" t="n">
+      <c r="AH162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI162" s="3" t="n">
         <v>3200</v>
       </c>
-      <c r="AI162" s="3" t="n">
+      <c r="AJ162" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="AJ162" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK162" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL162" s="3"/>
+      <c r="AK162" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C163" s="13" t="n">
         <v>44600</v>
@@ -20099,26 +20582,29 @@
       <c r="AG163" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH163" s="3" t="n">
-        <v>400</v>
+      <c r="AH163" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI163" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ163" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK163" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL163" s="3"/>
+      <c r="AK163" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM163" s="3"/>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C164" s="13" t="n">
         <v>44601</v>
@@ -20214,26 +20700,29 @@
       <c r="AG164" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH164" s="3" t="n">
+      <c r="AH164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI164" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AI164" s="3" t="n">
-        <v>400</v>
-      </c>
       <c r="AJ164" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK164" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL164" s="3"/>
+      <c r="AK164" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM164" s="3"/>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C165" s="13" t="n">
         <v>44601</v>
@@ -20329,26 +20818,29 @@
       <c r="AG165" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH165" s="3" t="n">
-        <v>800</v>
+      <c r="AH165" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI165" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ165" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK165" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL165" s="3"/>
+      <c r="AK165" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM165" s="3"/>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166" s="13" t="n">
         <v>44601</v>
@@ -20444,8 +20936,8 @@
       <c r="AG166" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH166" s="3" t="n">
-        <v>400</v>
+      <c r="AH166" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI166" s="3" t="n">
         <v>400</v>
@@ -20453,17 +20945,20 @@
       <c r="AJ166" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK166" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL166" s="3"/>
+      <c r="AK166" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM166" s="3"/>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C167" s="13" t="n">
         <v>44602</v>
@@ -20560,8 +21055,8 @@
       <c r="AG167" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH167" s="3" t="n">
-        <v>600</v>
+      <c r="AH167" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI167" s="3" t="n">
         <v>600</v>
@@ -20569,17 +21064,20 @@
       <c r="AJ167" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK167" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL167" s="3"/>
+      <c r="AK167" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM167" s="3"/>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C168" s="13" t="n">
         <v>44602</v>
@@ -20676,26 +21174,29 @@
       <c r="AG168" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH168" s="3" t="n">
-        <v>400</v>
+      <c r="AH168" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI168" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ168" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK168" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL168" s="3"/>
+      <c r="AK168" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM168" s="3"/>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C169" s="13" t="n">
         <v>44602</v>
@@ -20792,8 +21293,8 @@
       <c r="AG169" s="3" t="n">
         <v>900</v>
       </c>
-      <c r="AH169" s="3" t="n">
-        <v>300</v>
+      <c r="AH169" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI169" s="3" t="n">
         <v>300</v>
@@ -20801,17 +21302,20 @@
       <c r="AJ169" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK169" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL169" s="3"/>
+      <c r="AK169" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM169" s="3"/>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C170" s="13" t="n">
         <v>44603</v>
@@ -20906,8 +21410,8 @@
       <c r="AG170" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH170" s="3" t="n">
-        <v>800</v>
+      <c r="AH170" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI170" s="3" t="n">
         <v>800</v>
@@ -20915,17 +21419,20 @@
       <c r="AJ170" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK170" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL170" s="3"/>
+      <c r="AK170" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM170" s="3"/>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C171" s="13" t="n">
         <v>44603</v>
@@ -21021,26 +21528,29 @@
       <c r="AG171" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH171" s="3" t="n">
+      <c r="AH171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI171" s="3" t="n">
         <v>1800</v>
       </c>
-      <c r="AI171" s="3" t="n">
-        <v>600</v>
-      </c>
       <c r="AJ171" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK171" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL171" s="3"/>
+      <c r="AK171" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM171" s="3"/>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C172" s="13" t="n">
         <v>44603</v>
@@ -21136,26 +21646,29 @@
       <c r="AG172" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH172" s="3" t="n">
-        <v>800</v>
+      <c r="AH172" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI172" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ172" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK172" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL172" s="3"/>
+      <c r="AK172" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM172" s="3"/>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C173" s="13" t="n">
         <v>44604</v>
@@ -21252,26 +21765,29 @@
       <c r="AG173" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH173" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI173" s="3" t="n">
-        <v>400</v>
+      <c r="AH173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI173" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ173" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK173" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL173" s="3"/>
+      <c r="AK173" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM173" s="3"/>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C174" s="13" t="n">
         <v>44604</v>
@@ -21368,8 +21884,8 @@
       <c r="AG174" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AH174" s="3" t="n">
-        <v>300</v>
+      <c r="AH174" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI174" s="3" t="n">
         <v>300</v>
@@ -21377,17 +21893,20 @@
       <c r="AJ174" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK174" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL174" s="3"/>
+      <c r="AK174" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM174" s="3"/>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C175" s="13" t="n">
         <v>44604</v>
@@ -21483,26 +22002,29 @@
       <c r="AG175" s="3" t="n">
         <v>900</v>
       </c>
-      <c r="AH175" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI175" s="3" t="n">
-        <v>300</v>
+      <c r="AH175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI175" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ175" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK175" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL175" s="3"/>
+      <c r="AK175" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM175" s="3"/>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C176" s="13" t="n">
         <v>44604</v>
@@ -21599,26 +22121,29 @@
       <c r="AG176" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH176" s="3" t="n">
-        <v>400</v>
+      <c r="AH176" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI176" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ176" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK176" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL176" s="3"/>
+      <c r="AK176" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM176" s="3"/>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C177" s="13" t="n">
         <v>44605</v>
@@ -21715,26 +22240,29 @@
       <c r="AG177" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH177" s="3" t="n">
+      <c r="AH177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI177" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AI177" s="3" t="n">
-        <v>400</v>
-      </c>
       <c r="AJ177" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK177" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL177" s="3"/>
+      <c r="AK177" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM177" s="3"/>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C178" s="13" t="n">
         <v>44605</v>
@@ -21831,8 +22359,8 @@
       <c r="AG178" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH178" s="3" t="n">
-        <v>200</v>
+      <c r="AH178" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI178" s="3" t="n">
         <v>200</v>
@@ -21840,17 +22368,20 @@
       <c r="AJ178" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK178" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL178" s="3"/>
+      <c r="AK178" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM178" s="3"/>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C179" s="13" t="n">
         <v>44605</v>
@@ -21947,26 +22478,29 @@
       <c r="AG179" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH179" s="3" t="n">
+      <c r="AH179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI179" s="3" t="n">
         <v>1800</v>
       </c>
-      <c r="AI179" s="3" t="n">
-        <v>600</v>
-      </c>
       <c r="AJ179" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK179" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL179" s="3"/>
+      <c r="AK179" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM179" s="3"/>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C180" s="13" t="n">
         <v>44606</v>
@@ -22063,8 +22597,8 @@
       <c r="AG180" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AH180" s="3" t="n">
-        <v>1000</v>
+      <c r="AH180" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI180" s="3" t="n">
         <v>1000</v>
@@ -22072,17 +22606,20 @@
       <c r="AJ180" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK180" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL180" s="3"/>
+      <c r="AK180" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM180" s="3"/>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C181" s="13" t="n">
         <v>44606</v>
@@ -22179,26 +22716,29 @@
       <c r="AG181" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH181" s="3" t="n">
+      <c r="AH181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI181" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AI181" s="3" t="n">
-        <v>400</v>
-      </c>
       <c r="AJ181" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK181" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL181" s="3"/>
+      <c r="AK181" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM181" s="3"/>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C182" s="13" t="n">
         <v>44606</v>
@@ -22295,26 +22835,29 @@
       <c r="AG182" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH182" s="3" t="n">
-        <v>600</v>
+      <c r="AH182" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI182" s="3" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="AJ182" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK182" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL182" s="3"/>
+      <c r="AK182" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM182" s="3"/>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C183" s="13" t="n">
         <v>44606</v>
@@ -22411,26 +22954,29 @@
       <c r="AG183" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH183" s="3" t="n">
-        <v>600</v>
+      <c r="AH183" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI183" s="3" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="AJ183" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK183" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL183" s="3"/>
+      <c r="AK183" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM183" s="3"/>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C184" s="13" t="n">
         <v>44607</v>
@@ -22527,8 +23073,8 @@
       <c r="AG184" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AH184" s="3" t="n">
-        <v>1000</v>
+      <c r="AH184" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI184" s="3" t="n">
         <v>1000</v>
@@ -22536,17 +23082,20 @@
       <c r="AJ184" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK184" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL184" s="3"/>
+      <c r="AK184" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM184" s="3"/>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C185" s="13" t="n">
         <v>44607</v>
@@ -22643,26 +23192,29 @@
       <c r="AG185" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH185" s="3" t="n">
-        <v>400</v>
+      <c r="AH185" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI185" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ185" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK185" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL185" s="3"/>
+      <c r="AK185" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM185" s="3"/>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C186" s="13" t="n">
         <v>44607</v>
@@ -22759,26 +23311,29 @@
       <c r="AG186" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH186" s="3" t="n">
-        <v>400</v>
+      <c r="AH186" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI186" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ186" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK186" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL186" s="3"/>
+      <c r="AK186" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM186" s="3"/>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C187" s="13" t="n">
         <v>44608</v>
@@ -22875,8 +23430,8 @@
       <c r="AG187" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AH187" s="3" t="n">
-        <v>1000</v>
+      <c r="AH187" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI187" s="3" t="n">
         <v>1000</v>
@@ -22884,17 +23439,20 @@
       <c r="AJ187" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK187" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL187" s="3"/>
+      <c r="AK187" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM187" s="3"/>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C188" s="13" t="n">
         <v>44608</v>
@@ -22991,26 +23549,29 @@
       <c r="AG188" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH188" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI188" s="3" t="n">
-        <v>300</v>
+      <c r="AH188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI188" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ188" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK188" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL188" s="3"/>
+      <c r="AK188" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM188" s="3"/>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C189" s="13" t="n">
         <v>44608</v>
@@ -23107,26 +23668,29 @@
       <c r="AG189" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH189" s="3" t="n">
-        <v>800</v>
-      </c>
-      <c r="AI189" s="1" t="n">
-        <v>0</v>
+      <c r="AH189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI189" s="3" t="n">
+        <v>800</v>
       </c>
       <c r="AJ189" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK189" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL189" s="3"/>
+      <c r="AK189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM189" s="3"/>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C190" s="13" t="n">
         <v>44609</v>
@@ -23223,26 +23787,29 @@
       <c r="AG190" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH190" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI190" s="3" t="n">
-        <v>600</v>
+      <c r="AH190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI190" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ190" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK190" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL190" s="3"/>
+      <c r="AK190" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL190" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM190" s="3"/>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C191" s="13" t="n">
         <v>44609</v>
@@ -23339,26 +23906,29 @@
       <c r="AG191" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH191" s="3" t="n">
-        <v>400</v>
+      <c r="AH191" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI191" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ191" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK191" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL191" s="3"/>
+      <c r="AK191" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM191" s="3"/>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C192" s="13" t="n">
         <v>44610</v>
@@ -23455,25 +24025,28 @@
       <c r="AG192" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH192" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI192" s="3" t="n">
-        <v>400</v>
+      <c r="AH192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI192" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ192" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK192" s="0" t="s">
-        <v>9</v>
+      <c r="AK192" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL192" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C193" s="13" t="n">
         <v>44610</v>
@@ -23570,25 +24143,28 @@
       <c r="AG193" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH193" s="3" t="n">
+      <c r="AH193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI193" s="3" t="n">
         <v>1600</v>
       </c>
-      <c r="AI193" s="3" t="n">
-        <v>400</v>
-      </c>
       <c r="AJ193" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK193" s="0" t="s">
-        <v>9</v>
+      <c r="AK193" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL193" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C194" s="13" t="n">
         <v>44610</v>
@@ -23685,25 +24261,28 @@
       <c r="AG194" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH194" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="AI194" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ194" s="3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AK194" s="0" t="s">
-        <v>9</v>
+      <c r="AH194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI194" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AJ194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK194" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL194" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C195" s="13" t="n">
         <v>44610</v>
@@ -23800,8 +24379,8 @@
       <c r="AG195" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH195" s="3" t="n">
-        <v>800</v>
+      <c r="AH195" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI195" s="3" t="n">
         <v>800</v>
@@ -23809,16 +24388,19 @@
       <c r="AJ195" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AK195" s="0" t="s">
-        <v>9</v>
+      <c r="AK195" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL195" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C196" s="13" t="n">
         <v>44611</v>
@@ -23915,25 +24497,28 @@
       <c r="AG196" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AH196" s="3" t="n">
+      <c r="AH196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI196" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AI196" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ196" s="3" t="n">
+      <c r="AJ196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK196" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK196" s="0" t="s">
-        <v>9</v>
+      <c r="AL196" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C197" s="13" t="n">
         <v>44611</v>
@@ -24030,25 +24615,28 @@
       <c r="AG197" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH197" s="3" t="n">
+      <c r="AH197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI197" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AI197" s="3" t="n">
-        <v>600</v>
-      </c>
       <c r="AJ197" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK197" s="0" t="s">
-        <v>9</v>
+      <c r="AK197" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL197" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C198" s="13" t="n">
         <v>44611</v>
@@ -24145,8 +24733,8 @@
       <c r="AG198" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AH198" s="3" t="n">
-        <v>500</v>
+      <c r="AH198" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI198" s="3" t="n">
         <v>500</v>
@@ -24154,16 +24742,19 @@
       <c r="AJ198" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK198" s="0" t="s">
-        <v>9</v>
+      <c r="AK198" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL198" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C199" s="13" t="n">
         <v>44611</v>
@@ -24260,25 +24851,28 @@
       <c r="AG199" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH199" s="3" t="n">
-        <v>800</v>
-      </c>
-      <c r="AI199" s="1" t="n">
-        <v>0</v>
+      <c r="AH199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI199" s="3" t="n">
+        <v>800</v>
       </c>
       <c r="AJ199" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AK199" s="0" t="s">
-        <v>9</v>
+      <c r="AK199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL199" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C200" s="13" t="n">
         <v>44612</v>
@@ -24375,25 +24969,28 @@
       <c r="AG200" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH200" s="3" t="n">
-        <v>400</v>
+      <c r="AH200" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI200" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ200" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK200" s="0" t="s">
-        <v>9</v>
+      <c r="AK200" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL200" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C201" s="13" t="n">
         <v>44612</v>
@@ -24490,25 +25087,28 @@
       <c r="AG201" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH201" s="3" t="n">
-        <v>400</v>
+      <c r="AH201" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI201" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ201" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK201" s="0" t="s">
-        <v>9</v>
+      <c r="AK201" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL201" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202" s="13" t="n">
         <v>44612</v>
@@ -24605,25 +25205,28 @@
       <c r="AG202" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AH202" s="3" t="n">
+      <c r="AH202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI202" s="3" t="n">
         <v>2000</v>
-      </c>
-      <c r="AI202" s="3" t="n">
-        <v>1000</v>
       </c>
       <c r="AJ202" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK202" s="0" t="s">
-        <v>9</v>
+      <c r="AK202" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL202" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C203" s="13" t="n">
         <v>44612</v>
@@ -24720,25 +25323,28 @@
       <c r="AG203" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH203" s="3" t="n">
-        <v>400</v>
+      <c r="AH203" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI203" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ203" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK203" s="0" t="s">
-        <v>9</v>
+      <c r="AK203" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL203" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C204" s="13" t="n">
         <v>44612</v>
@@ -24835,25 +25441,28 @@
       <c r="AG204" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH204" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI204" s="3" t="n">
-        <v>600</v>
+      <c r="AH204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI204" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ204" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK204" s="0" t="s">
-        <v>9</v>
+      <c r="AK204" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL204" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C205" s="13" t="n">
         <v>44612</v>
@@ -24950,8 +25559,8 @@
       <c r="AG205" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH205" s="3" t="n">
-        <v>400</v>
+      <c r="AH205" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI205" s="3" t="n">
         <v>400</v>
@@ -24959,16 +25568,19 @@
       <c r="AJ205" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK205" s="0" t="s">
-        <v>9</v>
+      <c r="AK205" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL205" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C206" s="13" t="n">
         <v>44613</v>
@@ -25065,8 +25677,8 @@
       <c r="AG206" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AH206" s="3" t="n">
-        <v>2000</v>
+      <c r="AH206" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI206" s="3" t="n">
         <v>2000</v>
@@ -25074,16 +25686,19 @@
       <c r="AJ206" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AK206" s="0" t="s">
-        <v>9</v>
+      <c r="AK206" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AL206" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C207" s="13" t="n">
         <v>44613</v>
@@ -25180,25 +25795,28 @@
       <c r="AG207" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="AH207" s="3" t="n">
-        <v>800</v>
+      <c r="AH207" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI207" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ207" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK207" s="0" t="s">
-        <v>9</v>
+      <c r="AK207" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL207" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C208" s="13" t="n">
         <v>44613</v>
@@ -25295,25 +25913,28 @@
       <c r="AG208" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH208" s="3" t="n">
-        <v>400</v>
+      <c r="AH208" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI208" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ208" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK208" s="0" t="s">
-        <v>9</v>
+      <c r="AK208" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL208" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C209" s="13" t="n">
         <v>44614</v>
@@ -25410,25 +26031,28 @@
       <c r="AG209" s="3" t="n">
         <v>2400</v>
       </c>
-      <c r="AH209" s="1" t="n">
-        <v>0</v>
+      <c r="AH209" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI209" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AJ209" s="3" t="n">
-        <v>800</v>
-      </c>
-      <c r="AK209" s="0" t="s">
-        <v>9</v>
+      <c r="AJ209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK209" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL209" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C210" s="13" t="n">
         <v>44614</v>
@@ -25525,25 +26149,28 @@
       <c r="AG210" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AH210" s="3" t="n">
+      <c r="AH210" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI210" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="AI210" s="3" t="n">
-        <v>600</v>
-      </c>
       <c r="AJ210" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK210" s="0" t="s">
-        <v>9</v>
+      <c r="AK210" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL210" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C211" s="13" t="n">
         <v>44614</v>
@@ -25640,8 +26267,8 @@
       <c r="AG211" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH211" s="3" t="n">
-        <v>200</v>
+      <c r="AH211" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI211" s="3" t="n">
         <v>200</v>
@@ -25649,16 +26276,19 @@
       <c r="AJ211" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK211" s="0" t="s">
-        <v>9</v>
+      <c r="AK211" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL211" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C212" s="13" t="n">
         <v>44614</v>
@@ -25755,25 +26385,28 @@
       <c r="AG212" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH212" s="3" t="n">
-        <v>400</v>
+      <c r="AH212" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI212" s="3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AJ212" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK212" s="0" t="s">
-        <v>9</v>
+      <c r="AK212" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL212" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C213" s="13" t="n">
         <v>44614</v>
@@ -25870,8 +26503,8 @@
       <c r="AG213" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH213" s="3" t="n">
-        <v>400</v>
+      <c r="AH213" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI213" s="3" t="n">
         <v>400</v>
@@ -25879,16 +26512,19 @@
       <c r="AJ213" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK213" s="0" t="s">
-        <v>9</v>
+      <c r="AK213" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL213" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C214" s="13" t="n">
         <v>44615</v>
@@ -25985,25 +26621,28 @@
       <c r="AG214" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH214" s="3" t="n">
-        <v>800</v>
+      <c r="AH214" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI214" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ214" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK214" s="0" t="s">
-        <v>9</v>
+      <c r="AK214" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL214" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C215" s="13" t="n">
         <v>44615</v>
@@ -26100,25 +26739,28 @@
       <c r="AG215" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH215" s="3" t="n">
-        <v>800</v>
+      <c r="AH215" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI215" s="3" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ215" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK215" s="0" t="s">
-        <v>9</v>
+      <c r="AK215" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL215" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C216" s="13" t="n">
         <v>44615</v>
@@ -26215,8 +26857,8 @@
       <c r="AG216" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AH216" s="3" t="n">
-        <v>1000</v>
+      <c r="AH216" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AI216" s="3" t="n">
         <v>1000</v>
@@ -26224,16 +26866,19 @@
       <c r="AJ216" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK216" s="0" t="s">
-        <v>9</v>
+      <c r="AK216" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL216" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C217" s="13" t="n">
         <v>44615</v>
@@ -26330,25 +26975,28 @@
       <c r="AG217" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH217" s="3" t="n">
+      <c r="AH217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI217" s="3" t="n">
         <v>1000</v>
-      </c>
-      <c r="AI217" s="3" t="n">
-        <v>500</v>
       </c>
       <c r="AJ217" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="AK217" s="0" t="s">
-        <v>9</v>
+      <c r="AK217" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL217" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C218" s="13" t="n">
         <v>44617</v>
@@ -26445,25 +27093,28 @@
       <c r="AG218" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AH218" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI218" s="3" t="n">
-        <v>400</v>
+      <c r="AH218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI218" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ218" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK218" s="0" t="s">
-        <v>9</v>
+      <c r="AK218" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL218" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C219" s="13" t="n">
         <v>44617</v>
@@ -26560,25 +27211,28 @@
       <c r="AG219" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AH219" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI219" s="3" t="n">
-        <v>200</v>
+      <c r="AH219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI219" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ219" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK219" s="0" t="s">
-        <v>9</v>
+      <c r="AK219" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL219" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C220" s="13" t="n">
         <v>44617</v>
@@ -26675,25 +27329,28 @@
       <c r="AG220" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AH220" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI220" s="3" t="n">
-        <v>1000</v>
+      <c r="AH220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI220" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ220" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK220" s="0" t="s">
-        <v>9</v>
+      <c r="AK220" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL220" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C221" s="13" t="n">
         <v>44617</v>
@@ -26790,25 +27447,28 @@
       <c r="AG221" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AH221" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI221" s="3" t="n">
-        <v>300</v>
+      <c r="AH221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI221" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ221" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK221" s="0" t="s">
-        <v>9</v>
+      <c r="AK221" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL221" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C222" s="13" t="n">
         <v>44618</v>
@@ -26905,25 +27565,28 @@
       <c r="AG222" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH222" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AI222" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ222" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK222" s="0" t="s">
-        <v>9</v>
+      <c r="AH222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI222" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK222" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL222" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C223" s="13" t="n">
         <v>44618</v>
@@ -27020,8 +27683,8 @@
       <c r="AG223" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH223" s="3" t="n">
-        <v>200</v>
+      <c r="AH223" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI223" s="3" t="n">
         <v>200</v>
@@ -27029,16 +27692,19 @@
       <c r="AJ223" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK223" s="0" t="s">
-        <v>9</v>
+      <c r="AK223" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL223" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C224" s="13" t="n">
         <v>44618</v>
@@ -27135,25 +27801,28 @@
       <c r="AG224" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH224" s="3" t="n">
-        <v>2000</v>
+      <c r="AH224" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI224" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AJ224" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK224" s="0" t="s">
-        <v>9</v>
+      <c r="AJ224" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AK224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL224" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C225" s="13" t="n">
         <v>44619</v>
@@ -27250,25 +27919,28 @@
       <c r="AG225" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH225" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI225" s="3" t="n">
-        <v>400</v>
+      <c r="AH225" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI225" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ225" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK225" s="0" t="s">
-        <v>9</v>
+      <c r="AK225" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL225" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C226" s="13" t="n">
         <v>44619</v>
@@ -27365,25 +28037,28 @@
       <c r="AG226" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH226" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI226" s="3" t="n">
-        <v>200</v>
+      <c r="AH226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI226" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ226" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="AK226" s="0" t="s">
-        <v>9</v>
+      <c r="AK226" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL226" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C227" s="13" t="n">
         <v>44619</v>
@@ -27480,25 +28155,28 @@
       <c r="AG227" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH227" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI227" s="3" t="n">
+      <c r="AH227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ227" s="3" t="n">
         <v>2000</v>
       </c>
-      <c r="AJ227" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK227" s="0" t="s">
-        <v>9</v>
+      <c r="AK227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL227" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C228" s="13" t="n">
         <v>44619</v>
@@ -27595,25 +28273,28 @@
       <c r="AG228" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH228" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI228" s="3" t="n">
-        <v>400</v>
+      <c r="AH228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI228" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ228" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="AK228" s="0" t="s">
-        <v>9</v>
+      <c r="AK228" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL228" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C229" s="13" t="n">
         <v>44619</v>
@@ -27710,25 +28391,28 @@
       <c r="AG229" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH229" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI229" s="3" t="n">
-        <v>300</v>
+      <c r="AH229" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI229" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ229" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK229" s="0" t="s">
-        <v>9</v>
+      <c r="AK229" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL229" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C230" s="13" t="n">
         <v>44619</v>
@@ -27825,25 +28509,28 @@
       <c r="AG230" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH230" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI230" s="3" t="n">
-        <v>600</v>
+      <c r="AH230" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI230" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ230" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="AK230" s="0" t="s">
-        <v>9</v>
+      <c r="AK230" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL230" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C231" s="13" t="n">
         <v>44619</v>
@@ -27940,25 +28627,28 @@
       <c r="AG231" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH231" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI231" s="3" t="n">
-        <v>1000</v>
+      <c r="AH231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI231" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ231" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK231" s="0" t="s">
-        <v>9</v>
+      <c r="AK231" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL231" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C232" s="13" t="n">
         <v>44619</v>
@@ -28055,25 +28745,28 @@
       <c r="AG232" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH232" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI232" s="3" t="n">
-        <v>300</v>
+      <c r="AH232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI232" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AJ232" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="AK232" s="0" t="s">
-        <v>9</v>
+      <c r="AK232" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL232" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C233" s="13" t="n">
         <v>44620</v>
@@ -28170,25 +28863,28 @@
       <c r="AG233" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH233" s="1" t="n">
-        <v>0</v>
+      <c r="AH233" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI233" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AJ233" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="AK233" s="0" t="s">
-        <v>9</v>
+      <c r="AJ233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK233" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL233" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <v>243</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C234" s="13" t="n">
         <v>44620</v>
@@ -28285,25 +28981,28 @@
       <c r="AG234" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH234" s="1" t="n">
-        <v>0</v>
+      <c r="AH234" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI234" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AJ234" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="AK234" s="0" t="s">
-        <v>9</v>
+      <c r="AJ234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK234" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AL234" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>244</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C235" s="13" t="n">
         <v>44620</v>
@@ -28400,25 +29099,28 @@
       <c r="AG235" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH235" s="1" t="n">
-        <v>0</v>
+      <c r="AH235" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI235" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AJ235" s="3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AK235" s="0" t="s">
-        <v>9</v>
+      <c r="AJ235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK235" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL235" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <v>245</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C236" s="13" t="n">
         <v>44620</v>
@@ -28515,25 +29217,28 @@
       <c r="AG236" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH236" s="1" t="n">
-        <v>0</v>
+      <c r="AH236" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI236" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AJ236" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="AK236" s="0" t="s">
-        <v>9</v>
+      <c r="AJ236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK236" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL236" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <v>246</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C237" s="13" t="n">
         <v>44620</v>
@@ -28630,20 +29335,23 @@
       <c r="AG237" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH237" s="1" t="n">
-        <v>0</v>
+      <c r="AH237" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AI237" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AJ237" s="3" t="n">
+      <c r="AJ237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK237" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="AK237" s="0" t="s">
-        <v>9</v>
+      <c r="AL237" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -28680,6 +29388,7 @@
       <c r="AH238" s="3"/>
       <c r="AI238" s="3"/>
       <c r="AJ238" s="3"/>
+      <c r="AK238" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
